--- a/06_납품현황/2018/01_광교에이스/02_SerialNumber/USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2018/01_광교에이스/02_SerialNumber/USM_LGM_SerialNumber.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>USM</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS698"/>
+  <dimension ref="A1:BS356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M327" sqref="M327"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A106" sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A353" s="1">
         <v>143</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A354" s="1">
         <v>144</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A355" s="1">
         <v>145</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A356" s="1">
         <v>146</v>
       </c>
@@ -10080,7113 +10080,6 @@
         <v>70001</v>
       </c>
       <c r="C356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A366" s="1">
-        <v>31</v>
-      </c>
-      <c r="B366" s="2">
-        <v>5111</v>
-      </c>
-      <c r="C366">
-        <v>0</v>
-      </c>
-      <c r="D366" s="1">
-        <v>140</v>
-      </c>
-      <c r="E366" s="1">
-        <v>220</v>
-      </c>
-      <c r="F366" s="1">
-        <v>100</v>
-      </c>
-      <c r="G366" s="4">
-        <v>10</v>
-      </c>
-      <c r="H366" s="4">
-        <v>3</v>
-      </c>
-      <c r="I366">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A367" s="1">
-        <v>32</v>
-      </c>
-      <c r="B367" s="2">
-        <v>5112</v>
-      </c>
-      <c r="C367">
-        <v>0</v>
-      </c>
-      <c r="D367" s="1">
-        <v>141</v>
-      </c>
-      <c r="E367" s="1">
-        <v>220</v>
-      </c>
-      <c r="F367" s="1">
-        <v>100</v>
-      </c>
-      <c r="G367" s="4">
-        <v>10</v>
-      </c>
-      <c r="H367" s="4">
-        <v>3</v>
-      </c>
-      <c r="I367">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A368" s="1">
-        <v>33</v>
-      </c>
-      <c r="B368" s="2">
-        <v>5113</v>
-      </c>
-      <c r="C368">
-        <v>0</v>
-      </c>
-      <c r="D368" s="1">
-        <v>141</v>
-      </c>
-      <c r="E368" s="1">
-        <v>220</v>
-      </c>
-      <c r="F368" s="1">
-        <v>100</v>
-      </c>
-      <c r="G368" s="4">
-        <v>10</v>
-      </c>
-      <c r="H368" s="4">
-        <v>3</v>
-      </c>
-      <c r="I368">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A369" s="1">
-        <v>34</v>
-      </c>
-      <c r="B369" s="2">
-        <v>5114</v>
-      </c>
-      <c r="C369">
-        <v>0</v>
-      </c>
-      <c r="D369" s="1">
-        <v>142</v>
-      </c>
-      <c r="E369" s="1">
-        <v>220</v>
-      </c>
-      <c r="F369" s="1">
-        <v>100</v>
-      </c>
-      <c r="G369" s="4">
-        <v>10</v>
-      </c>
-      <c r="H369" s="4">
-        <v>3</v>
-      </c>
-      <c r="I369">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A370" s="1">
-        <v>35</v>
-      </c>
-      <c r="B370" s="2">
-        <v>5115</v>
-      </c>
-      <c r="C370">
-        <v>0</v>
-      </c>
-      <c r="D370" s="1">
-        <v>142</v>
-      </c>
-      <c r="E370" s="1">
-        <v>220</v>
-      </c>
-      <c r="F370" s="1">
-        <v>100</v>
-      </c>
-      <c r="G370" s="4">
-        <v>10</v>
-      </c>
-      <c r="H370" s="4">
-        <v>3</v>
-      </c>
-      <c r="I370">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A371" s="1">
-        <v>36</v>
-      </c>
-      <c r="B371" s="2">
-        <v>5116</v>
-      </c>
-      <c r="C371">
-        <v>0</v>
-      </c>
-      <c r="D371" s="1">
-        <v>142</v>
-      </c>
-      <c r="E371" s="1">
-        <v>220</v>
-      </c>
-      <c r="F371" s="1">
-        <v>100</v>
-      </c>
-      <c r="G371" s="4">
-        <v>10</v>
-      </c>
-      <c r="H371" s="4">
-        <v>3</v>
-      </c>
-      <c r="I371">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A372" s="1">
-        <v>37</v>
-      </c>
-      <c r="B372" s="2">
-        <v>5128</v>
-      </c>
-      <c r="C372">
-        <v>0</v>
-      </c>
-      <c r="D372" s="1">
-        <v>143</v>
-      </c>
-      <c r="E372" s="1">
-        <v>220</v>
-      </c>
-      <c r="F372" s="1">
-        <v>100</v>
-      </c>
-      <c r="G372" s="4">
-        <v>10</v>
-      </c>
-      <c r="H372" s="4">
-        <v>3</v>
-      </c>
-      <c r="I372">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A373" s="1">
-        <v>38</v>
-      </c>
-      <c r="B373" s="2">
-        <v>5129</v>
-      </c>
-      <c r="C373">
-        <v>0</v>
-      </c>
-      <c r="D373" s="1">
-        <v>143</v>
-      </c>
-      <c r="E373" s="1">
-        <v>220</v>
-      </c>
-      <c r="F373" s="1">
-        <v>100</v>
-      </c>
-      <c r="G373" s="4">
-        <v>10</v>
-      </c>
-      <c r="H373" s="4">
-        <v>3</v>
-      </c>
-      <c r="I373">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A374" s="1">
-        <v>39</v>
-      </c>
-      <c r="B374" s="2">
-        <v>5130</v>
-      </c>
-      <c r="C374">
-        <v>0</v>
-      </c>
-      <c r="D374" s="1">
-        <v>143</v>
-      </c>
-      <c r="E374" s="1">
-        <v>220</v>
-      </c>
-      <c r="F374" s="1">
-        <v>100</v>
-      </c>
-      <c r="G374" s="4">
-        <v>10</v>
-      </c>
-      <c r="H374" s="4">
-        <v>3</v>
-      </c>
-      <c r="I374">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A375" s="1">
-        <v>40</v>
-      </c>
-      <c r="B375" s="2">
-        <v>5131</v>
-      </c>
-      <c r="C375">
-        <v>0</v>
-      </c>
-      <c r="D375" s="1">
-        <v>144</v>
-      </c>
-      <c r="E375" s="1">
-        <v>220</v>
-      </c>
-      <c r="F375" s="1">
-        <v>100</v>
-      </c>
-      <c r="G375" s="4">
-        <v>10</v>
-      </c>
-      <c r="H375" s="4">
-        <v>3</v>
-      </c>
-      <c r="I375">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A376" s="1">
-        <v>41</v>
-      </c>
-      <c r="B376" s="2">
-        <v>5132</v>
-      </c>
-      <c r="C376">
-        <v>0</v>
-      </c>
-      <c r="D376" s="1">
-        <v>144</v>
-      </c>
-      <c r="E376" s="1">
-        <v>220</v>
-      </c>
-      <c r="F376" s="1">
-        <v>100</v>
-      </c>
-      <c r="G376" s="4">
-        <v>10</v>
-      </c>
-      <c r="H376" s="4">
-        <v>3</v>
-      </c>
-      <c r="I376">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A377" s="1">
-        <v>42</v>
-      </c>
-      <c r="B377" s="2">
-        <v>5133</v>
-      </c>
-      <c r="C377">
-        <v>0</v>
-      </c>
-      <c r="D377" s="1">
-        <v>144</v>
-      </c>
-      <c r="E377" s="1">
-        <v>220</v>
-      </c>
-      <c r="F377" s="1">
-        <v>100</v>
-      </c>
-      <c r="G377" s="4">
-        <v>10</v>
-      </c>
-      <c r="H377" s="4">
-        <v>3</v>
-      </c>
-      <c r="I377">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A378" s="1">
-        <v>43</v>
-      </c>
-      <c r="B378" s="2">
-        <v>5134</v>
-      </c>
-      <c r="C378">
-        <v>0</v>
-      </c>
-      <c r="D378" s="1">
-        <v>145</v>
-      </c>
-      <c r="E378" s="1">
-        <v>220</v>
-      </c>
-      <c r="F378" s="1">
-        <v>100</v>
-      </c>
-      <c r="G378" s="4">
-        <v>10</v>
-      </c>
-      <c r="H378" s="4">
-        <v>3</v>
-      </c>
-      <c r="I378">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A379" s="1">
-        <v>44</v>
-      </c>
-      <c r="B379" s="2">
-        <v>5135</v>
-      </c>
-      <c r="C379">
-        <v>0</v>
-      </c>
-      <c r="D379" s="1">
-        <v>145</v>
-      </c>
-      <c r="E379" s="1">
-        <v>220</v>
-      </c>
-      <c r="F379" s="1">
-        <v>100</v>
-      </c>
-      <c r="G379" s="4">
-        <v>10</v>
-      </c>
-      <c r="H379" s="4">
-        <v>3</v>
-      </c>
-      <c r="I379">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A380" s="1">
-        <v>45</v>
-      </c>
-      <c r="B380" s="2">
-        <v>5136</v>
-      </c>
-      <c r="C380">
-        <v>0</v>
-      </c>
-      <c r="D380" s="1">
-        <v>146</v>
-      </c>
-      <c r="E380" s="1">
-        <v>220</v>
-      </c>
-      <c r="F380" s="1">
-        <v>100</v>
-      </c>
-      <c r="G380" s="4">
-        <v>10</v>
-      </c>
-      <c r="H380" s="4">
-        <v>3</v>
-      </c>
-      <c r="I380">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A381" s="1">
-        <v>46</v>
-      </c>
-      <c r="B381" s="2">
-        <v>5137</v>
-      </c>
-      <c r="C381">
-        <v>0</v>
-      </c>
-      <c r="D381" s="1">
-        <v>146</v>
-      </c>
-      <c r="E381" s="1">
-        <v>220</v>
-      </c>
-      <c r="F381" s="1">
-        <v>100</v>
-      </c>
-      <c r="G381" s="4">
-        <v>10</v>
-      </c>
-      <c r="H381" s="4">
-        <v>3</v>
-      </c>
-      <c r="I381">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A382" s="1">
-        <v>47</v>
-      </c>
-      <c r="B382" s="2">
-        <v>5138</v>
-      </c>
-      <c r="C382">
-        <v>0</v>
-      </c>
-      <c r="D382" s="1">
-        <v>146</v>
-      </c>
-      <c r="E382" s="1">
-        <v>220</v>
-      </c>
-      <c r="F382" s="1">
-        <v>100</v>
-      </c>
-      <c r="G382" s="4">
-        <v>10</v>
-      </c>
-      <c r="H382" s="4">
-        <v>3</v>
-      </c>
-      <c r="I382">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A383" s="1">
-        <v>48</v>
-      </c>
-      <c r="B383" s="2">
-        <v>5139</v>
-      </c>
-      <c r="C383">
-        <v>0</v>
-      </c>
-      <c r="D383" s="1">
-        <v>147</v>
-      </c>
-      <c r="E383" s="1">
-        <v>220</v>
-      </c>
-      <c r="F383" s="1">
-        <v>100</v>
-      </c>
-      <c r="G383" s="4">
-        <v>10</v>
-      </c>
-      <c r="H383" s="4">
-        <v>3</v>
-      </c>
-      <c r="I383">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A384" s="1">
-        <v>49</v>
-      </c>
-      <c r="B384" s="2">
-        <v>5140</v>
-      </c>
-      <c r="C384">
-        <v>0</v>
-      </c>
-      <c r="D384" s="1">
-        <v>147</v>
-      </c>
-      <c r="E384" s="1">
-        <v>220</v>
-      </c>
-      <c r="F384" s="1">
-        <v>100</v>
-      </c>
-      <c r="G384" s="4">
-        <v>10</v>
-      </c>
-      <c r="H384" s="4">
-        <v>3</v>
-      </c>
-      <c r="I384">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A385" s="1">
-        <v>50</v>
-      </c>
-      <c r="B385" s="2">
-        <v>5141</v>
-      </c>
-      <c r="C385">
-        <v>0</v>
-      </c>
-      <c r="D385" s="1">
-        <v>147</v>
-      </c>
-      <c r="E385" s="1">
-        <v>220</v>
-      </c>
-      <c r="F385" s="1">
-        <v>100</v>
-      </c>
-      <c r="G385" s="4">
-        <v>10</v>
-      </c>
-      <c r="H385" s="4">
-        <v>3</v>
-      </c>
-      <c r="I385">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A386" s="1">
-        <v>51</v>
-      </c>
-      <c r="B386" s="2">
-        <v>5142</v>
-      </c>
-      <c r="C386">
-        <v>0</v>
-      </c>
-      <c r="D386" s="1">
-        <v>148</v>
-      </c>
-      <c r="E386" s="1">
-        <v>220</v>
-      </c>
-      <c r="F386" s="1">
-        <v>100</v>
-      </c>
-      <c r="G386" s="4">
-        <v>10</v>
-      </c>
-      <c r="H386" s="4">
-        <v>3</v>
-      </c>
-      <c r="I386">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A387" s="1">
-        <v>52</v>
-      </c>
-      <c r="B387" s="2">
-        <v>5143</v>
-      </c>
-      <c r="C387">
-        <v>0</v>
-      </c>
-      <c r="D387" s="1">
-        <v>148</v>
-      </c>
-      <c r="E387" s="1">
-        <v>220</v>
-      </c>
-      <c r="F387" s="1">
-        <v>100</v>
-      </c>
-      <c r="G387" s="4">
-        <v>10</v>
-      </c>
-      <c r="H387" s="4">
-        <v>3</v>
-      </c>
-      <c r="I387">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A388" s="1">
-        <v>53</v>
-      </c>
-      <c r="B388" s="2">
-        <v>5144</v>
-      </c>
-      <c r="C388">
-        <v>0</v>
-      </c>
-      <c r="D388" s="1">
-        <v>148</v>
-      </c>
-      <c r="E388" s="1">
-        <v>220</v>
-      </c>
-      <c r="F388" s="1">
-        <v>100</v>
-      </c>
-      <c r="G388" s="4">
-        <v>10</v>
-      </c>
-      <c r="H388" s="4">
-        <v>3</v>
-      </c>
-      <c r="I388">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A389" s="1">
-        <v>54</v>
-      </c>
-      <c r="B389" s="2">
-        <v>5145</v>
-      </c>
-      <c r="C389">
-        <v>0</v>
-      </c>
-      <c r="D389" s="1">
-        <v>149</v>
-      </c>
-      <c r="E389" s="1">
-        <v>220</v>
-      </c>
-      <c r="F389" s="1">
-        <v>100</v>
-      </c>
-      <c r="G389" s="4">
-        <v>10</v>
-      </c>
-      <c r="H389" s="4">
-        <v>3</v>
-      </c>
-      <c r="I389">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A390" s="1">
-        <v>55</v>
-      </c>
-      <c r="B390" s="2">
-        <v>5146</v>
-      </c>
-      <c r="C390">
-        <v>0</v>
-      </c>
-      <c r="D390" s="1">
-        <v>149</v>
-      </c>
-      <c r="E390" s="1">
-        <v>220</v>
-      </c>
-      <c r="F390" s="1">
-        <v>100</v>
-      </c>
-      <c r="G390" s="4">
-        <v>10</v>
-      </c>
-      <c r="H390" s="4">
-        <v>3</v>
-      </c>
-      <c r="I390">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A391" s="1">
-        <v>56</v>
-      </c>
-      <c r="B391" s="2">
-        <v>5147</v>
-      </c>
-      <c r="C391">
-        <v>0</v>
-      </c>
-      <c r="D391" s="1">
-        <v>149</v>
-      </c>
-      <c r="E391" s="1">
-        <v>220</v>
-      </c>
-      <c r="F391" s="1">
-        <v>100</v>
-      </c>
-      <c r="G391" s="4">
-        <v>10</v>
-      </c>
-      <c r="H391" s="4">
-        <v>3</v>
-      </c>
-      <c r="I391">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A392" s="1">
-        <v>57</v>
-      </c>
-      <c r="B392" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C392">
-        <v>0</v>
-      </c>
-      <c r="D392" s="1">
-        <v>150</v>
-      </c>
-      <c r="E392" s="1">
-        <v>220</v>
-      </c>
-      <c r="F392" s="1">
-        <v>100</v>
-      </c>
-      <c r="G392" s="4">
-        <v>10</v>
-      </c>
-      <c r="H392" s="4">
-        <v>3</v>
-      </c>
-      <c r="I392">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A393" s="1">
-        <v>58</v>
-      </c>
-      <c r="B393" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C393">
-        <v>0</v>
-      </c>
-      <c r="D393" s="1">
-        <v>150</v>
-      </c>
-      <c r="E393" s="1">
-        <v>220</v>
-      </c>
-      <c r="F393" s="1">
-        <v>100</v>
-      </c>
-      <c r="G393" s="4">
-        <v>10</v>
-      </c>
-      <c r="H393" s="4">
-        <v>3</v>
-      </c>
-      <c r="I393">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A397" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A398" s="1">
-        <v>129</v>
-      </c>
-      <c r="B398" s="2">
-        <v>1758</v>
-      </c>
-      <c r="C398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A399" s="1">
-        <v>130</v>
-      </c>
-      <c r="B399" s="2">
-        <v>1759</v>
-      </c>
-      <c r="C399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A400" s="1">
-        <v>131</v>
-      </c>
-      <c r="B400" s="2">
-        <v>1760</v>
-      </c>
-      <c r="C400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A401" s="1">
-        <v>132</v>
-      </c>
-      <c r="B401" s="2">
-        <v>1761</v>
-      </c>
-      <c r="C401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A402" s="1">
-        <v>133</v>
-      </c>
-      <c r="B402" s="2">
-        <v>1762</v>
-      </c>
-      <c r="C402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A403" s="1">
-        <v>134</v>
-      </c>
-      <c r="B403" s="2">
-        <v>1763</v>
-      </c>
-      <c r="C403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A404" s="1">
-        <v>135</v>
-      </c>
-      <c r="B404" s="2">
-        <v>1764</v>
-      </c>
-      <c r="C404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A405" s="1">
-        <v>136</v>
-      </c>
-      <c r="B405" s="2">
-        <v>1765</v>
-      </c>
-      <c r="C405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A406" s="1">
-        <v>137</v>
-      </c>
-      <c r="B406" s="2">
-        <v>1766</v>
-      </c>
-      <c r="C406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A407" s="1">
-        <v>138</v>
-      </c>
-      <c r="B407" s="2">
-        <v>1771</v>
-      </c>
-      <c r="C407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A408" s="1">
-        <v>139</v>
-      </c>
-      <c r="B408" s="2">
-        <v>1772</v>
-      </c>
-      <c r="C408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A409" s="1">
-        <v>140</v>
-      </c>
-      <c r="B409" s="2">
-        <v>67</v>
-      </c>
-      <c r="C409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A410" s="1">
-        <v>141</v>
-      </c>
-      <c r="B410" s="2">
-        <v>1774</v>
-      </c>
-      <c r="C410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A411" s="1">
-        <v>142</v>
-      </c>
-      <c r="B411" s="2">
-        <v>1775</v>
-      </c>
-      <c r="C411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A412" s="1">
-        <v>143</v>
-      </c>
-      <c r="B412" s="2">
-        <v>44</v>
-      </c>
-      <c r="C412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A413" s="1">
-        <v>144</v>
-      </c>
-      <c r="B413" s="2">
-        <v>1550</v>
-      </c>
-      <c r="C413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A414" s="1">
-        <v>145</v>
-      </c>
-      <c r="B414" s="2">
-        <v>1782</v>
-      </c>
-      <c r="C414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A415" s="1">
-        <v>146</v>
-      </c>
-      <c r="B415" s="2">
-        <v>587</v>
-      </c>
-      <c r="C415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A416" s="1">
-        <v>147</v>
-      </c>
-      <c r="B416" s="2">
-        <v>1784</v>
-      </c>
-      <c r="C416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A417" s="1">
-        <v>148</v>
-      </c>
-      <c r="B417" s="2">
-        <v>1785</v>
-      </c>
-      <c r="C417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A418" s="1">
-        <v>149</v>
-      </c>
-      <c r="B418" s="2">
-        <v>1786</v>
-      </c>
-      <c r="C418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A419" s="1">
-        <v>150</v>
-      </c>
-      <c r="B419" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A424" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A425" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A426" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A427" s="1">
-        <v>1</v>
-      </c>
-      <c r="B427" s="2">
-        <v>5172</v>
-      </c>
-      <c r="C427">
-        <v>0</v>
-      </c>
-      <c r="D427" s="1">
-        <v>129</v>
-      </c>
-      <c r="E427" s="1">
-        <v>220</v>
-      </c>
-      <c r="F427" s="1">
-        <v>100</v>
-      </c>
-      <c r="G427" s="4">
-        <v>10</v>
-      </c>
-      <c r="H427" s="4">
-        <v>3</v>
-      </c>
-      <c r="I427">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A428" s="1">
-        <v>2</v>
-      </c>
-      <c r="B428" s="2">
-        <v>5173</v>
-      </c>
-      <c r="C428">
-        <v>0</v>
-      </c>
-      <c r="D428" s="1">
-        <v>129</v>
-      </c>
-      <c r="E428" s="1">
-        <v>220</v>
-      </c>
-      <c r="F428" s="1">
-        <v>100</v>
-      </c>
-      <c r="G428" s="4">
-        <v>10</v>
-      </c>
-      <c r="H428" s="4">
-        <v>3</v>
-      </c>
-      <c r="I428">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A429" s="1">
-        <v>3</v>
-      </c>
-      <c r="B429" s="2">
-        <v>5174</v>
-      </c>
-      <c r="C429">
-        <v>0</v>
-      </c>
-      <c r="D429" s="1">
-        <v>129</v>
-      </c>
-      <c r="E429" s="1">
-        <v>220</v>
-      </c>
-      <c r="F429" s="1">
-        <v>100</v>
-      </c>
-      <c r="G429" s="4">
-        <v>10</v>
-      </c>
-      <c r="H429" s="4">
-        <v>3</v>
-      </c>
-      <c r="I429">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A430" s="1">
-        <v>4</v>
-      </c>
-      <c r="B430" s="2">
-        <v>5175</v>
-      </c>
-      <c r="C430">
-        <v>0</v>
-      </c>
-      <c r="D430" s="1">
-        <v>130</v>
-      </c>
-      <c r="E430" s="1">
-        <v>220</v>
-      </c>
-      <c r="F430" s="1">
-        <v>100</v>
-      </c>
-      <c r="G430" s="4">
-        <v>10</v>
-      </c>
-      <c r="H430" s="4">
-        <v>3</v>
-      </c>
-      <c r="I430">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A431" s="1">
-        <v>5</v>
-      </c>
-      <c r="B431" s="2">
-        <v>5176</v>
-      </c>
-      <c r="C431">
-        <v>0</v>
-      </c>
-      <c r="D431" s="1">
-        <v>130</v>
-      </c>
-      <c r="E431" s="1">
-        <v>220</v>
-      </c>
-      <c r="F431" s="1">
-        <v>100</v>
-      </c>
-      <c r="G431" s="4">
-        <v>10</v>
-      </c>
-      <c r="H431" s="4">
-        <v>3</v>
-      </c>
-      <c r="I431">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A432" s="1">
-        <v>6</v>
-      </c>
-      <c r="B432" s="2">
-        <v>5177</v>
-      </c>
-      <c r="C432">
-        <v>0</v>
-      </c>
-      <c r="D432" s="1">
-        <v>130</v>
-      </c>
-      <c r="E432" s="1">
-        <v>220</v>
-      </c>
-      <c r="F432" s="1">
-        <v>100</v>
-      </c>
-      <c r="G432" s="4">
-        <v>10</v>
-      </c>
-      <c r="H432" s="4">
-        <v>3</v>
-      </c>
-      <c r="I432">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A433" s="1">
-        <v>7</v>
-      </c>
-      <c r="B433" s="2">
-        <v>5178</v>
-      </c>
-      <c r="C433">
-        <v>0</v>
-      </c>
-      <c r="D433" s="1">
-        <v>131</v>
-      </c>
-      <c r="E433" s="1">
-        <v>220</v>
-      </c>
-      <c r="F433" s="1">
-        <v>100</v>
-      </c>
-      <c r="G433" s="4">
-        <v>10</v>
-      </c>
-      <c r="H433" s="4">
-        <v>3</v>
-      </c>
-      <c r="I433">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A434" s="1">
-        <v>8</v>
-      </c>
-      <c r="B434" s="2">
-        <v>5179</v>
-      </c>
-      <c r="C434">
-        <v>0</v>
-      </c>
-      <c r="D434" s="1">
-        <v>131</v>
-      </c>
-      <c r="E434" s="1">
-        <v>220</v>
-      </c>
-      <c r="F434" s="1">
-        <v>100</v>
-      </c>
-      <c r="G434" s="4">
-        <v>10</v>
-      </c>
-      <c r="H434" s="4">
-        <v>3</v>
-      </c>
-      <c r="I434">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A435" s="1">
-        <v>9</v>
-      </c>
-      <c r="B435" s="2">
-        <v>5180</v>
-      </c>
-      <c r="C435">
-        <v>0</v>
-      </c>
-      <c r="D435" s="1">
-        <v>132</v>
-      </c>
-      <c r="E435" s="1">
-        <v>220</v>
-      </c>
-      <c r="F435" s="1">
-        <v>100</v>
-      </c>
-      <c r="G435" s="4">
-        <v>10</v>
-      </c>
-      <c r="H435" s="4">
-        <v>3</v>
-      </c>
-      <c r="I435">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A436" s="1">
-        <v>10</v>
-      </c>
-      <c r="B436" s="2">
-        <v>5181</v>
-      </c>
-      <c r="C436">
-        <v>0</v>
-      </c>
-      <c r="D436" s="1">
-        <v>132</v>
-      </c>
-      <c r="E436" s="1">
-        <v>220</v>
-      </c>
-      <c r="F436" s="1">
-        <v>100</v>
-      </c>
-      <c r="G436" s="4">
-        <v>10</v>
-      </c>
-      <c r="H436" s="4">
-        <v>3</v>
-      </c>
-      <c r="I436">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A437" s="1">
-        <v>11</v>
-      </c>
-      <c r="B437" s="2">
-        <v>5182</v>
-      </c>
-      <c r="C437">
-        <v>0</v>
-      </c>
-      <c r="D437" s="1">
-        <v>132</v>
-      </c>
-      <c r="E437" s="1">
-        <v>220</v>
-      </c>
-      <c r="F437" s="1">
-        <v>100</v>
-      </c>
-      <c r="G437" s="4">
-        <v>10</v>
-      </c>
-      <c r="H437" s="4">
-        <v>3</v>
-      </c>
-      <c r="I437">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A438" s="1">
-        <v>12</v>
-      </c>
-      <c r="B438" s="2">
-        <v>5183</v>
-      </c>
-      <c r="C438">
-        <v>0</v>
-      </c>
-      <c r="D438" s="1">
-        <v>133</v>
-      </c>
-      <c r="E438" s="1">
-        <v>220</v>
-      </c>
-      <c r="F438" s="1">
-        <v>100</v>
-      </c>
-      <c r="G438" s="4">
-        <v>10</v>
-      </c>
-      <c r="H438" s="4">
-        <v>3</v>
-      </c>
-      <c r="I438">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A439" s="1">
-        <v>13</v>
-      </c>
-      <c r="B439" s="2">
-        <v>5184</v>
-      </c>
-      <c r="C439">
-        <v>0</v>
-      </c>
-      <c r="D439" s="1">
-        <v>133</v>
-      </c>
-      <c r="E439" s="1">
-        <v>220</v>
-      </c>
-      <c r="F439" s="1">
-        <v>100</v>
-      </c>
-      <c r="G439" s="4">
-        <v>10</v>
-      </c>
-      <c r="H439" s="4">
-        <v>3</v>
-      </c>
-      <c r="I439">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A440" s="1">
-        <v>14</v>
-      </c>
-      <c r="B440" s="2">
-        <v>5185</v>
-      </c>
-      <c r="C440">
-        <v>0</v>
-      </c>
-      <c r="D440" s="1">
-        <v>133</v>
-      </c>
-      <c r="E440" s="1">
-        <v>220</v>
-      </c>
-      <c r="F440" s="1">
-        <v>100</v>
-      </c>
-      <c r="G440" s="4">
-        <v>10</v>
-      </c>
-      <c r="H440" s="4">
-        <v>3</v>
-      </c>
-      <c r="I440">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A441" s="1">
-        <v>15</v>
-      </c>
-      <c r="B441" s="2">
-        <v>5186</v>
-      </c>
-      <c r="C441">
-        <v>0</v>
-      </c>
-      <c r="D441" s="1">
-        <v>134</v>
-      </c>
-      <c r="E441" s="1">
-        <v>220</v>
-      </c>
-      <c r="F441" s="1">
-        <v>100</v>
-      </c>
-      <c r="G441" s="4">
-        <v>10</v>
-      </c>
-      <c r="H441" s="4">
-        <v>3</v>
-      </c>
-      <c r="I441">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A442" s="1">
-        <v>16</v>
-      </c>
-      <c r="B442" s="2">
-        <v>5187</v>
-      </c>
-      <c r="C442">
-        <v>0</v>
-      </c>
-      <c r="D442" s="1">
-        <v>134</v>
-      </c>
-      <c r="E442" s="1">
-        <v>220</v>
-      </c>
-      <c r="F442" s="1">
-        <v>100</v>
-      </c>
-      <c r="G442" s="4">
-        <v>10</v>
-      </c>
-      <c r="H442" s="4">
-        <v>3</v>
-      </c>
-      <c r="I442">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A443" s="1">
-        <v>17</v>
-      </c>
-      <c r="B443" s="2">
-        <v>5188</v>
-      </c>
-      <c r="C443">
-        <v>0</v>
-      </c>
-      <c r="D443" s="1">
-        <v>134</v>
-      </c>
-      <c r="E443" s="1">
-        <v>220</v>
-      </c>
-      <c r="F443" s="1">
-        <v>100</v>
-      </c>
-      <c r="G443" s="4">
-        <v>10</v>
-      </c>
-      <c r="H443" s="4">
-        <v>3</v>
-      </c>
-      <c r="I443">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A444" s="1">
-        <v>18</v>
-      </c>
-      <c r="B444" s="2">
-        <v>5203</v>
-      </c>
-      <c r="C444">
-        <v>0</v>
-      </c>
-      <c r="D444" s="1">
-        <v>135</v>
-      </c>
-      <c r="E444" s="1">
-        <v>220</v>
-      </c>
-      <c r="F444" s="1">
-        <v>100</v>
-      </c>
-      <c r="G444" s="4">
-        <v>10</v>
-      </c>
-      <c r="H444" s="4">
-        <v>3</v>
-      </c>
-      <c r="I444">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A445" s="1">
-        <v>19</v>
-      </c>
-      <c r="B445" s="2">
-        <v>5204</v>
-      </c>
-      <c r="C445">
-        <v>0</v>
-      </c>
-      <c r="D445" s="1">
-        <v>135</v>
-      </c>
-      <c r="E445" s="1">
-        <v>220</v>
-      </c>
-      <c r="F445" s="1">
-        <v>100</v>
-      </c>
-      <c r="G445" s="4">
-        <v>10</v>
-      </c>
-      <c r="H445" s="4">
-        <v>3</v>
-      </c>
-      <c r="I445">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A446" s="1">
-        <v>20</v>
-      </c>
-      <c r="B446" s="2">
-        <v>5205</v>
-      </c>
-      <c r="C446">
-        <v>0</v>
-      </c>
-      <c r="D446" s="1">
-        <v>136</v>
-      </c>
-      <c r="E446" s="1">
-        <v>220</v>
-      </c>
-      <c r="F446" s="1">
-        <v>100</v>
-      </c>
-      <c r="G446" s="4">
-        <v>10</v>
-      </c>
-      <c r="H446" s="4">
-        <v>3</v>
-      </c>
-      <c r="I446">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A447" s="1">
-        <v>21</v>
-      </c>
-      <c r="B447" s="2">
-        <v>5206</v>
-      </c>
-      <c r="C447">
-        <v>0</v>
-      </c>
-      <c r="D447" s="1">
-        <v>136</v>
-      </c>
-      <c r="E447" s="1">
-        <v>220</v>
-      </c>
-      <c r="F447" s="1">
-        <v>100</v>
-      </c>
-      <c r="G447" s="4">
-        <v>10</v>
-      </c>
-      <c r="H447" s="4">
-        <v>3</v>
-      </c>
-      <c r="I447">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A448" s="1">
-        <v>22</v>
-      </c>
-      <c r="B448" s="2">
-        <v>5207</v>
-      </c>
-      <c r="C448">
-        <v>0</v>
-      </c>
-      <c r="D448" s="1">
-        <v>136</v>
-      </c>
-      <c r="E448" s="1">
-        <v>220</v>
-      </c>
-      <c r="F448" s="1">
-        <v>100</v>
-      </c>
-      <c r="G448" s="4">
-        <v>10</v>
-      </c>
-      <c r="H448" s="4">
-        <v>3</v>
-      </c>
-      <c r="I448">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A449" s="1">
-        <v>23</v>
-      </c>
-      <c r="B449" s="2">
-        <v>5208</v>
-      </c>
-      <c r="C449">
-        <v>0</v>
-      </c>
-      <c r="D449" s="1">
-        <v>137</v>
-      </c>
-      <c r="E449" s="1">
-        <v>220</v>
-      </c>
-      <c r="F449" s="1">
-        <v>100</v>
-      </c>
-      <c r="G449" s="4">
-        <v>10</v>
-      </c>
-      <c r="H449" s="4">
-        <v>3</v>
-      </c>
-      <c r="I449">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A450" s="1">
-        <v>24</v>
-      </c>
-      <c r="B450" s="2">
-        <v>5209</v>
-      </c>
-      <c r="C450">
-        <v>0</v>
-      </c>
-      <c r="D450" s="1">
-        <v>137</v>
-      </c>
-      <c r="E450" s="1">
-        <v>220</v>
-      </c>
-      <c r="F450" s="1">
-        <v>100</v>
-      </c>
-      <c r="G450" s="4">
-        <v>10</v>
-      </c>
-      <c r="H450" s="4">
-        <v>3</v>
-      </c>
-      <c r="I450">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A451" s="1">
-        <v>25</v>
-      </c>
-      <c r="B451" s="2">
-        <v>5210</v>
-      </c>
-      <c r="C451">
-        <v>0</v>
-      </c>
-      <c r="D451" s="1">
-        <v>137</v>
-      </c>
-      <c r="E451" s="1">
-        <v>220</v>
-      </c>
-      <c r="F451" s="1">
-        <v>100</v>
-      </c>
-      <c r="G451" s="4">
-        <v>10</v>
-      </c>
-      <c r="H451" s="4">
-        <v>3</v>
-      </c>
-      <c r="I451">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A452" s="1">
-        <v>26</v>
-      </c>
-      <c r="B452" s="2">
-        <v>5211</v>
-      </c>
-      <c r="C452">
-        <v>0</v>
-      </c>
-      <c r="D452" s="1">
-        <v>138</v>
-      </c>
-      <c r="E452" s="1">
-        <v>220</v>
-      </c>
-      <c r="F452" s="1">
-        <v>100</v>
-      </c>
-      <c r="G452" s="4">
-        <v>10</v>
-      </c>
-      <c r="H452" s="4">
-        <v>3</v>
-      </c>
-      <c r="I452">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A453" s="1">
-        <v>27</v>
-      </c>
-      <c r="B453" s="2">
-        <v>5212</v>
-      </c>
-      <c r="C453">
-        <v>0</v>
-      </c>
-      <c r="D453" s="1">
-        <v>138</v>
-      </c>
-      <c r="E453" s="1">
-        <v>220</v>
-      </c>
-      <c r="F453" s="1">
-        <v>100</v>
-      </c>
-      <c r="G453" s="4">
-        <v>10</v>
-      </c>
-      <c r="H453" s="4">
-        <v>3</v>
-      </c>
-      <c r="I453">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A454" s="1">
-        <v>28</v>
-      </c>
-      <c r="B454" s="2">
-        <v>5213</v>
-      </c>
-      <c r="C454">
-        <v>0</v>
-      </c>
-      <c r="D454" s="1">
-        <v>138</v>
-      </c>
-      <c r="E454" s="1">
-        <v>220</v>
-      </c>
-      <c r="F454" s="1">
-        <v>100</v>
-      </c>
-      <c r="G454" s="4">
-        <v>10</v>
-      </c>
-      <c r="H454" s="4">
-        <v>3</v>
-      </c>
-      <c r="I454">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A455" s="1">
-        <v>29</v>
-      </c>
-      <c r="B455" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C455">
-        <v>0</v>
-      </c>
-      <c r="D455" s="1">
-        <v>139</v>
-      </c>
-      <c r="E455" s="1">
-        <v>220</v>
-      </c>
-      <c r="F455" s="1">
-        <v>100</v>
-      </c>
-      <c r="G455" s="4">
-        <v>10</v>
-      </c>
-      <c r="H455" s="4">
-        <v>3</v>
-      </c>
-      <c r="I455">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A456" s="1">
-        <v>30</v>
-      </c>
-      <c r="B456" s="2">
-        <v>70001</v>
-      </c>
-      <c r="C456">
-        <v>0</v>
-      </c>
-      <c r="D456" s="1">
-        <v>140</v>
-      </c>
-      <c r="E456" s="1">
-        <v>220</v>
-      </c>
-      <c r="F456" s="1">
-        <v>100</v>
-      </c>
-      <c r="G456" s="4">
-        <v>10</v>
-      </c>
-      <c r="H456" s="4">
-        <v>3</v>
-      </c>
-      <c r="I456">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A458" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A459" s="1">
-        <v>129</v>
-      </c>
-      <c r="B459" s="2">
-        <v>1796</v>
-      </c>
-      <c r="C459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A460" s="1">
-        <v>130</v>
-      </c>
-      <c r="B460" s="2">
-        <v>1797</v>
-      </c>
-      <c r="C460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A461" s="1">
-        <v>131</v>
-      </c>
-      <c r="B461" s="2">
-        <v>1798</v>
-      </c>
-      <c r="C461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A462" s="1">
-        <v>132</v>
-      </c>
-      <c r="B462" s="2">
-        <v>1799</v>
-      </c>
-      <c r="C462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A463" s="1">
-        <v>133</v>
-      </c>
-      <c r="B463" s="2">
-        <v>1800</v>
-      </c>
-      <c r="C463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A464" s="1">
-        <v>134</v>
-      </c>
-      <c r="B464" s="2">
-        <v>1801</v>
-      </c>
-      <c r="C464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A465" s="1">
-        <v>135</v>
-      </c>
-      <c r="B465" s="2">
-        <v>1807</v>
-      </c>
-      <c r="C465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A466" s="1">
-        <v>136</v>
-      </c>
-      <c r="B466" s="2">
-        <v>1808</v>
-      </c>
-      <c r="C466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A467" s="1">
-        <v>137</v>
-      </c>
-      <c r="B467" s="2">
-        <v>1809</v>
-      </c>
-      <c r="C467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A468" s="1">
-        <v>138</v>
-      </c>
-      <c r="B468" s="2">
-        <v>1810</v>
-      </c>
-      <c r="C468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A469" s="1">
-        <v>139</v>
-      </c>
-      <c r="B469" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A470" s="1">
-        <v>140</v>
-      </c>
-      <c r="B470" s="2">
-        <v>70001</v>
-      </c>
-      <c r="C470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A472" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A473" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A474" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A475" s="1">
-        <v>1</v>
-      </c>
-      <c r="B475" s="2">
-        <v>5148</v>
-      </c>
-      <c r="C475">
-        <v>0</v>
-      </c>
-      <c r="D475" s="1">
-        <v>129</v>
-      </c>
-      <c r="E475" s="1">
-        <v>220</v>
-      </c>
-      <c r="F475" s="1">
-        <v>100</v>
-      </c>
-      <c r="G475" s="4">
-        <v>10</v>
-      </c>
-      <c r="H475" s="4">
-        <v>3</v>
-      </c>
-      <c r="I475">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A476" s="1">
-        <v>2</v>
-      </c>
-      <c r="B476" s="2">
-        <v>5149</v>
-      </c>
-      <c r="C476">
-        <v>0</v>
-      </c>
-      <c r="D476" s="1">
-        <v>129</v>
-      </c>
-      <c r="E476" s="1">
-        <v>220</v>
-      </c>
-      <c r="F476" s="1">
-        <v>100</v>
-      </c>
-      <c r="G476" s="4">
-        <v>10</v>
-      </c>
-      <c r="H476" s="4">
-        <v>3</v>
-      </c>
-      <c r="I476">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A477" s="1">
-        <v>3</v>
-      </c>
-      <c r="B477" s="2">
-        <v>5150</v>
-      </c>
-      <c r="C477">
-        <v>0</v>
-      </c>
-      <c r="D477" s="1">
-        <v>129</v>
-      </c>
-      <c r="E477" s="1">
-        <v>220</v>
-      </c>
-      <c r="F477" s="1">
-        <v>100</v>
-      </c>
-      <c r="G477" s="4">
-        <v>10</v>
-      </c>
-      <c r="H477" s="4">
-        <v>3</v>
-      </c>
-      <c r="I477">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A478" s="1">
-        <v>4</v>
-      </c>
-      <c r="B478" s="2">
-        <v>5151</v>
-      </c>
-      <c r="C478">
-        <v>0</v>
-      </c>
-      <c r="D478" s="1">
-        <v>130</v>
-      </c>
-      <c r="E478" s="1">
-        <v>220</v>
-      </c>
-      <c r="F478" s="1">
-        <v>100</v>
-      </c>
-      <c r="G478" s="4">
-        <v>10</v>
-      </c>
-      <c r="H478" s="4">
-        <v>3</v>
-      </c>
-      <c r="I478">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A479" s="1">
-        <v>5</v>
-      </c>
-      <c r="B479" s="2">
-        <v>5152</v>
-      </c>
-      <c r="C479">
-        <v>0</v>
-      </c>
-      <c r="D479" s="1">
-        <v>130</v>
-      </c>
-      <c r="E479" s="1">
-        <v>220</v>
-      </c>
-      <c r="F479" s="1">
-        <v>100</v>
-      </c>
-      <c r="G479" s="4">
-        <v>10</v>
-      </c>
-      <c r="H479" s="4">
-        <v>3</v>
-      </c>
-      <c r="I479">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A480" s="1">
-        <v>6</v>
-      </c>
-      <c r="B480" s="2">
-        <v>5153</v>
-      </c>
-      <c r="C480">
-        <v>0</v>
-      </c>
-      <c r="D480" s="1">
-        <v>130</v>
-      </c>
-      <c r="E480" s="1">
-        <v>220</v>
-      </c>
-      <c r="F480" s="1">
-        <v>100</v>
-      </c>
-      <c r="G480" s="4">
-        <v>10</v>
-      </c>
-      <c r="H480" s="4">
-        <v>3</v>
-      </c>
-      <c r="I480">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A481" s="1">
-        <v>7</v>
-      </c>
-      <c r="B481" s="2">
-        <v>5154</v>
-      </c>
-      <c r="C481">
-        <v>0</v>
-      </c>
-      <c r="D481" s="1">
-        <v>131</v>
-      </c>
-      <c r="E481" s="1">
-        <v>220</v>
-      </c>
-      <c r="F481" s="1">
-        <v>100</v>
-      </c>
-      <c r="G481" s="4">
-        <v>10</v>
-      </c>
-      <c r="H481" s="4">
-        <v>3</v>
-      </c>
-      <c r="I481">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A482" s="1">
-        <v>8</v>
-      </c>
-      <c r="B482" s="2">
-        <v>5155</v>
-      </c>
-      <c r="C482">
-        <v>0</v>
-      </c>
-      <c r="D482" s="1">
-        <v>131</v>
-      </c>
-      <c r="E482" s="1">
-        <v>220</v>
-      </c>
-      <c r="F482" s="1">
-        <v>100</v>
-      </c>
-      <c r="G482" s="4">
-        <v>10</v>
-      </c>
-      <c r="H482" s="4">
-        <v>3</v>
-      </c>
-      <c r="I482">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A483" s="1">
-        <v>9</v>
-      </c>
-      <c r="B483" s="2">
-        <v>5156</v>
-      </c>
-      <c r="C483">
-        <v>0</v>
-      </c>
-      <c r="D483" s="1">
-        <v>131</v>
-      </c>
-      <c r="E483" s="1">
-        <v>220</v>
-      </c>
-      <c r="F483" s="1">
-        <v>100</v>
-      </c>
-      <c r="G483" s="4">
-        <v>10</v>
-      </c>
-      <c r="H483" s="4">
-        <v>3</v>
-      </c>
-      <c r="I483">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A484" s="1">
-        <v>10</v>
-      </c>
-      <c r="B484" s="2">
-        <v>5157</v>
-      </c>
-      <c r="C484">
-        <v>0</v>
-      </c>
-      <c r="D484" s="1">
-        <v>132</v>
-      </c>
-      <c r="E484" s="1">
-        <v>220</v>
-      </c>
-      <c r="F484" s="1">
-        <v>100</v>
-      </c>
-      <c r="G484" s="4">
-        <v>10</v>
-      </c>
-      <c r="H484" s="4">
-        <v>3</v>
-      </c>
-      <c r="I484">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A485" s="1">
-        <v>11</v>
-      </c>
-      <c r="B485" s="2">
-        <v>5158</v>
-      </c>
-      <c r="C485">
-        <v>0</v>
-      </c>
-      <c r="D485" s="1">
-        <v>132</v>
-      </c>
-      <c r="E485" s="1">
-        <v>220</v>
-      </c>
-      <c r="F485" s="1">
-        <v>100</v>
-      </c>
-      <c r="G485" s="4">
-        <v>10</v>
-      </c>
-      <c r="H485" s="4">
-        <v>3</v>
-      </c>
-      <c r="I485">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A486" s="1">
-        <v>12</v>
-      </c>
-      <c r="B486" s="2">
-        <v>5159</v>
-      </c>
-      <c r="C486">
-        <v>0</v>
-      </c>
-      <c r="D486" s="1">
-        <v>133</v>
-      </c>
-      <c r="E486" s="1">
-        <v>220</v>
-      </c>
-      <c r="F486" s="1">
-        <v>100</v>
-      </c>
-      <c r="G486" s="4">
-        <v>10</v>
-      </c>
-      <c r="H486" s="4">
-        <v>3</v>
-      </c>
-      <c r="I486">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A487" s="1">
-        <v>13</v>
-      </c>
-      <c r="B487" s="2">
-        <v>5160</v>
-      </c>
-      <c r="C487">
-        <v>0</v>
-      </c>
-      <c r="D487" s="1">
-        <v>133</v>
-      </c>
-      <c r="E487" s="1">
-        <v>220</v>
-      </c>
-      <c r="F487" s="1">
-        <v>100</v>
-      </c>
-      <c r="G487" s="4">
-        <v>10</v>
-      </c>
-      <c r="H487" s="4">
-        <v>3</v>
-      </c>
-      <c r="I487">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A488" s="1">
-        <v>14</v>
-      </c>
-      <c r="B488" s="2">
-        <v>5161</v>
-      </c>
-      <c r="C488">
-        <v>0</v>
-      </c>
-      <c r="D488" s="1">
-        <v>133</v>
-      </c>
-      <c r="E488" s="1">
-        <v>220</v>
-      </c>
-      <c r="F488" s="1">
-        <v>100</v>
-      </c>
-      <c r="G488" s="4">
-        <v>10</v>
-      </c>
-      <c r="H488" s="4">
-        <v>3</v>
-      </c>
-      <c r="I488">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A489" s="1">
-        <v>15</v>
-      </c>
-      <c r="B489" s="2">
-        <v>5162</v>
-      </c>
-      <c r="C489">
-        <v>0</v>
-      </c>
-      <c r="D489" s="1">
-        <v>134</v>
-      </c>
-      <c r="E489" s="1">
-        <v>220</v>
-      </c>
-      <c r="F489" s="1">
-        <v>100</v>
-      </c>
-      <c r="G489" s="4">
-        <v>10</v>
-      </c>
-      <c r="H489" s="4">
-        <v>3</v>
-      </c>
-      <c r="I489">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A490" s="1">
-        <v>16</v>
-      </c>
-      <c r="B490" s="2">
-        <v>5163</v>
-      </c>
-      <c r="C490">
-        <v>0</v>
-      </c>
-      <c r="D490" s="1">
-        <v>134</v>
-      </c>
-      <c r="E490" s="1">
-        <v>220</v>
-      </c>
-      <c r="F490" s="1">
-        <v>100</v>
-      </c>
-      <c r="G490" s="4">
-        <v>10</v>
-      </c>
-      <c r="H490" s="4">
-        <v>3</v>
-      </c>
-      <c r="I490">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A491" s="1">
-        <v>17</v>
-      </c>
-      <c r="B491" s="2">
-        <v>5164</v>
-      </c>
-      <c r="C491">
-        <v>0</v>
-      </c>
-      <c r="D491" s="1">
-        <v>134</v>
-      </c>
-      <c r="E491" s="1">
-        <v>220</v>
-      </c>
-      <c r="F491" s="1">
-        <v>100</v>
-      </c>
-      <c r="G491" s="4">
-        <v>10</v>
-      </c>
-      <c r="H491" s="4">
-        <v>3</v>
-      </c>
-      <c r="I491">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A492" s="1">
-        <v>18</v>
-      </c>
-      <c r="B492" s="2">
-        <v>5165</v>
-      </c>
-      <c r="C492">
-        <v>0</v>
-      </c>
-      <c r="D492" s="1">
-        <v>135</v>
-      </c>
-      <c r="E492" s="1">
-        <v>220</v>
-      </c>
-      <c r="F492" s="1">
-        <v>100</v>
-      </c>
-      <c r="G492" s="4">
-        <v>10</v>
-      </c>
-      <c r="H492" s="4">
-        <v>3</v>
-      </c>
-      <c r="I492">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A493" s="1">
-        <v>19</v>
-      </c>
-      <c r="B493" s="2">
-        <v>5166</v>
-      </c>
-      <c r="C493">
-        <v>0</v>
-      </c>
-      <c r="D493" s="1">
-        <v>135</v>
-      </c>
-      <c r="E493" s="1">
-        <v>220</v>
-      </c>
-      <c r="F493" s="1">
-        <v>100</v>
-      </c>
-      <c r="G493" s="4">
-        <v>10</v>
-      </c>
-      <c r="H493" s="4">
-        <v>3</v>
-      </c>
-      <c r="I493">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A494" s="1">
-        <v>20</v>
-      </c>
-      <c r="B494" s="2">
-        <v>5167</v>
-      </c>
-      <c r="C494">
-        <v>0</v>
-      </c>
-      <c r="D494" s="1">
-        <v>135</v>
-      </c>
-      <c r="E494" s="1">
-        <v>220</v>
-      </c>
-      <c r="F494" s="1">
-        <v>100</v>
-      </c>
-      <c r="G494" s="4">
-        <v>10</v>
-      </c>
-      <c r="H494" s="4">
-        <v>3</v>
-      </c>
-      <c r="I494">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A495" s="1">
-        <v>21</v>
-      </c>
-      <c r="B495" s="2">
-        <v>5168</v>
-      </c>
-      <c r="C495">
-        <v>0</v>
-      </c>
-      <c r="D495" s="1">
-        <v>136</v>
-      </c>
-      <c r="E495" s="1">
-        <v>220</v>
-      </c>
-      <c r="F495" s="1">
-        <v>100</v>
-      </c>
-      <c r="G495" s="4">
-        <v>10</v>
-      </c>
-      <c r="H495" s="4">
-        <v>3</v>
-      </c>
-      <c r="I495">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A496" s="1">
-        <v>22</v>
-      </c>
-      <c r="B496" s="2">
-        <v>5169</v>
-      </c>
-      <c r="C496">
-        <v>0</v>
-      </c>
-      <c r="D496" s="1">
-        <v>136</v>
-      </c>
-      <c r="E496" s="1">
-        <v>220</v>
-      </c>
-      <c r="F496" s="1">
-        <v>100</v>
-      </c>
-      <c r="G496" s="4">
-        <v>10</v>
-      </c>
-      <c r="H496" s="4">
-        <v>3</v>
-      </c>
-      <c r="I496">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A497" s="1">
-        <v>23</v>
-      </c>
-      <c r="B497" s="2">
-        <v>5170</v>
-      </c>
-      <c r="C497">
-        <v>0</v>
-      </c>
-      <c r="D497" s="1">
-        <v>137</v>
-      </c>
-      <c r="E497" s="1">
-        <v>220</v>
-      </c>
-      <c r="F497" s="1">
-        <v>100</v>
-      </c>
-      <c r="G497" s="4">
-        <v>10</v>
-      </c>
-      <c r="H497" s="4">
-        <v>3</v>
-      </c>
-      <c r="I497">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A498" s="1">
-        <v>24</v>
-      </c>
-      <c r="B498" s="2">
-        <v>5171</v>
-      </c>
-      <c r="C498">
-        <v>0</v>
-      </c>
-      <c r="D498" s="1">
-        <v>137</v>
-      </c>
-      <c r="E498" s="1">
-        <v>220</v>
-      </c>
-      <c r="F498" s="1">
-        <v>100</v>
-      </c>
-      <c r="G498" s="4">
-        <v>10</v>
-      </c>
-      <c r="H498" s="4">
-        <v>3</v>
-      </c>
-      <c r="I498">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A499" s="1">
-        <v>25</v>
-      </c>
-      <c r="B499" s="2">
-        <v>5189</v>
-      </c>
-      <c r="C499">
-        <v>0</v>
-      </c>
-      <c r="D499" s="1">
-        <v>138</v>
-      </c>
-      <c r="E499" s="1">
-        <v>220</v>
-      </c>
-      <c r="F499" s="1">
-        <v>100</v>
-      </c>
-      <c r="G499" s="4">
-        <v>10</v>
-      </c>
-      <c r="H499" s="4">
-        <v>3</v>
-      </c>
-      <c r="I499">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A500" s="1">
-        <v>26</v>
-      </c>
-      <c r="B500" s="2">
-        <v>5190</v>
-      </c>
-      <c r="C500">
-        <v>0</v>
-      </c>
-      <c r="D500" s="1">
-        <v>138</v>
-      </c>
-      <c r="E500" s="1">
-        <v>220</v>
-      </c>
-      <c r="F500" s="1">
-        <v>100</v>
-      </c>
-      <c r="G500" s="4">
-        <v>10</v>
-      </c>
-      <c r="H500" s="4">
-        <v>3</v>
-      </c>
-      <c r="I500">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A501" s="1">
-        <v>27</v>
-      </c>
-      <c r="B501" s="2">
-        <v>5191</v>
-      </c>
-      <c r="C501">
-        <v>0</v>
-      </c>
-      <c r="D501" s="1">
-        <v>138</v>
-      </c>
-      <c r="E501" s="1">
-        <v>220</v>
-      </c>
-      <c r="F501" s="1">
-        <v>100</v>
-      </c>
-      <c r="G501" s="4">
-        <v>10</v>
-      </c>
-      <c r="H501" s="4">
-        <v>3</v>
-      </c>
-      <c r="I501">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A502" s="1">
-        <v>28</v>
-      </c>
-      <c r="B502" s="2">
-        <v>5192</v>
-      </c>
-      <c r="C502">
-        <v>0</v>
-      </c>
-      <c r="D502" s="1">
-        <v>139</v>
-      </c>
-      <c r="E502" s="1">
-        <v>220</v>
-      </c>
-      <c r="F502" s="1">
-        <v>100</v>
-      </c>
-      <c r="G502" s="4">
-        <v>10</v>
-      </c>
-      <c r="H502" s="4">
-        <v>3</v>
-      </c>
-      <c r="I502">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A503" s="1">
-        <v>29</v>
-      </c>
-      <c r="B503" s="2">
-        <v>5193</v>
-      </c>
-      <c r="C503">
-        <v>0</v>
-      </c>
-      <c r="D503" s="1">
-        <v>139</v>
-      </c>
-      <c r="E503" s="1">
-        <v>220</v>
-      </c>
-      <c r="F503" s="1">
-        <v>100</v>
-      </c>
-      <c r="G503" s="4">
-        <v>10</v>
-      </c>
-      <c r="H503" s="4">
-        <v>3</v>
-      </c>
-      <c r="I503">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A504" s="1">
-        <v>30</v>
-      </c>
-      <c r="B504" s="2">
-        <v>5194</v>
-      </c>
-      <c r="C504">
-        <v>0</v>
-      </c>
-      <c r="D504" s="1">
-        <v>139</v>
-      </c>
-      <c r="E504" s="1">
-        <v>220</v>
-      </c>
-      <c r="F504" s="1">
-        <v>100</v>
-      </c>
-      <c r="G504" s="4">
-        <v>10</v>
-      </c>
-      <c r="H504" s="4">
-        <v>3</v>
-      </c>
-      <c r="I504">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A505" s="1">
-        <v>31</v>
-      </c>
-      <c r="B505" s="2">
-        <v>5195</v>
-      </c>
-      <c r="C505">
-        <v>0</v>
-      </c>
-      <c r="D505" s="1">
-        <v>140</v>
-      </c>
-      <c r="E505" s="1">
-        <v>220</v>
-      </c>
-      <c r="F505" s="1">
-        <v>100</v>
-      </c>
-      <c r="G505" s="4">
-        <v>10</v>
-      </c>
-      <c r="H505" s="4">
-        <v>3</v>
-      </c>
-      <c r="I505">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A506" s="1">
-        <v>32</v>
-      </c>
-      <c r="B506" s="2">
-        <v>5196</v>
-      </c>
-      <c r="C506">
-        <v>0</v>
-      </c>
-      <c r="D506" s="1">
-        <v>140</v>
-      </c>
-      <c r="E506" s="1">
-        <v>220</v>
-      </c>
-      <c r="F506" s="1">
-        <v>100</v>
-      </c>
-      <c r="G506" s="4">
-        <v>10</v>
-      </c>
-      <c r="H506" s="4">
-        <v>3</v>
-      </c>
-      <c r="I506">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A507" s="1">
-        <v>33</v>
-      </c>
-      <c r="B507" s="2">
-        <v>5197</v>
-      </c>
-      <c r="C507">
-        <v>0</v>
-      </c>
-      <c r="D507" s="1">
-        <v>140</v>
-      </c>
-      <c r="E507" s="1">
-        <v>220</v>
-      </c>
-      <c r="F507" s="1">
-        <v>100</v>
-      </c>
-      <c r="G507" s="4">
-        <v>10</v>
-      </c>
-      <c r="H507" s="4">
-        <v>3</v>
-      </c>
-      <c r="I507">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A508" s="1">
-        <v>34</v>
-      </c>
-      <c r="B508" s="2">
-        <v>5198</v>
-      </c>
-      <c r="C508">
-        <v>0</v>
-      </c>
-      <c r="D508" s="1">
-        <v>141</v>
-      </c>
-      <c r="E508" s="1">
-        <v>220</v>
-      </c>
-      <c r="F508" s="1">
-        <v>100</v>
-      </c>
-      <c r="G508" s="4">
-        <v>10</v>
-      </c>
-      <c r="H508" s="4">
-        <v>3</v>
-      </c>
-      <c r="I508">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A509" s="1">
-        <v>35</v>
-      </c>
-      <c r="B509" s="2">
-        <v>5199</v>
-      </c>
-      <c r="C509">
-        <v>0</v>
-      </c>
-      <c r="D509" s="1">
-        <v>141</v>
-      </c>
-      <c r="E509" s="1">
-        <v>220</v>
-      </c>
-      <c r="F509" s="1">
-        <v>100</v>
-      </c>
-      <c r="G509" s="4">
-        <v>10</v>
-      </c>
-      <c r="H509" s="4">
-        <v>3</v>
-      </c>
-      <c r="I509">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A510" s="1">
-        <v>36</v>
-      </c>
-      <c r="B510" s="2">
-        <v>5200</v>
-      </c>
-      <c r="C510">
-        <v>0</v>
-      </c>
-      <c r="D510" s="1">
-        <v>142</v>
-      </c>
-      <c r="E510" s="1">
-        <v>220</v>
-      </c>
-      <c r="F510" s="1">
-        <v>100</v>
-      </c>
-      <c r="G510" s="4">
-        <v>10</v>
-      </c>
-      <c r="H510" s="4">
-        <v>3</v>
-      </c>
-      <c r="I510">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A511" s="1">
-        <v>37</v>
-      </c>
-      <c r="B511" s="2">
-        <v>5201</v>
-      </c>
-      <c r="C511">
-        <v>0</v>
-      </c>
-      <c r="D511" s="1">
-        <v>142</v>
-      </c>
-      <c r="E511" s="1">
-        <v>220</v>
-      </c>
-      <c r="F511" s="1">
-        <v>100</v>
-      </c>
-      <c r="G511" s="4">
-        <v>10</v>
-      </c>
-      <c r="H511" s="4">
-        <v>3</v>
-      </c>
-      <c r="I511">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A512" s="1">
-        <v>38</v>
-      </c>
-      <c r="B512" s="2">
-        <v>5202</v>
-      </c>
-      <c r="C512">
-        <v>0</v>
-      </c>
-      <c r="D512" s="1">
-        <v>142</v>
-      </c>
-      <c r="E512" s="1">
-        <v>220</v>
-      </c>
-      <c r="F512" s="1">
-        <v>100</v>
-      </c>
-      <c r="G512" s="4">
-        <v>10</v>
-      </c>
-      <c r="H512" s="4">
-        <v>3</v>
-      </c>
-      <c r="I512">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A513" s="1">
-        <v>39</v>
-      </c>
-      <c r="B513" s="2">
-        <v>5214</v>
-      </c>
-      <c r="C513">
-        <v>0</v>
-      </c>
-      <c r="D513" s="1">
-        <v>143</v>
-      </c>
-      <c r="E513" s="1">
-        <v>220</v>
-      </c>
-      <c r="F513" s="1">
-        <v>100</v>
-      </c>
-      <c r="G513" s="4">
-        <v>10</v>
-      </c>
-      <c r="H513" s="4">
-        <v>3</v>
-      </c>
-      <c r="I513">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A514" s="1">
-        <v>40</v>
-      </c>
-      <c r="B514" s="2">
-        <v>5215</v>
-      </c>
-      <c r="C514">
-        <v>0</v>
-      </c>
-      <c r="D514" s="1">
-        <v>143</v>
-      </c>
-      <c r="E514" s="1">
-        <v>220</v>
-      </c>
-      <c r="F514" s="1">
-        <v>100</v>
-      </c>
-      <c r="G514" s="4">
-        <v>10</v>
-      </c>
-      <c r="H514" s="4">
-        <v>3</v>
-      </c>
-      <c r="I514">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A515" s="1">
-        <v>41</v>
-      </c>
-      <c r="B515" s="2">
-        <v>5216</v>
-      </c>
-      <c r="C515">
-        <v>0</v>
-      </c>
-      <c r="D515" s="1">
-        <v>143</v>
-      </c>
-      <c r="E515" s="1">
-        <v>220</v>
-      </c>
-      <c r="F515" s="1">
-        <v>100</v>
-      </c>
-      <c r="G515" s="4">
-        <v>10</v>
-      </c>
-      <c r="H515" s="4">
-        <v>3</v>
-      </c>
-      <c r="I515">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A516" s="1">
-        <v>42</v>
-      </c>
-      <c r="B516" s="2">
-        <v>5217</v>
-      </c>
-      <c r="C516">
-        <v>0</v>
-      </c>
-      <c r="D516" s="1">
-        <v>144</v>
-      </c>
-      <c r="E516" s="1">
-        <v>220</v>
-      </c>
-      <c r="F516" s="1">
-        <v>100</v>
-      </c>
-      <c r="G516" s="4">
-        <v>10</v>
-      </c>
-      <c r="H516" s="4">
-        <v>3</v>
-      </c>
-      <c r="I516">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A517" s="1">
-        <v>43</v>
-      </c>
-      <c r="B517" s="2">
-        <v>5218</v>
-      </c>
-      <c r="C517">
-        <v>0</v>
-      </c>
-      <c r="D517" s="1">
-        <v>144</v>
-      </c>
-      <c r="E517" s="1">
-        <v>220</v>
-      </c>
-      <c r="F517" s="1">
-        <v>100</v>
-      </c>
-      <c r="G517" s="4">
-        <v>10</v>
-      </c>
-      <c r="H517" s="4">
-        <v>3</v>
-      </c>
-      <c r="I517">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A518" s="1">
-        <v>44</v>
-      </c>
-      <c r="B518" s="2">
-        <v>5219</v>
-      </c>
-      <c r="C518">
-        <v>0</v>
-      </c>
-      <c r="D518" s="1">
-        <v>144</v>
-      </c>
-      <c r="E518" s="1">
-        <v>220</v>
-      </c>
-      <c r="F518" s="1">
-        <v>100</v>
-      </c>
-      <c r="G518" s="4">
-        <v>10</v>
-      </c>
-      <c r="H518" s="4">
-        <v>3</v>
-      </c>
-      <c r="I518">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A519" s="1">
-        <v>45</v>
-      </c>
-      <c r="B519" s="2">
-        <v>5220</v>
-      </c>
-      <c r="C519">
-        <v>0</v>
-      </c>
-      <c r="D519" s="1">
-        <v>145</v>
-      </c>
-      <c r="E519" s="1">
-        <v>220</v>
-      </c>
-      <c r="F519" s="1">
-        <v>100</v>
-      </c>
-      <c r="G519" s="4">
-        <v>10</v>
-      </c>
-      <c r="H519" s="4">
-        <v>3</v>
-      </c>
-      <c r="I519">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A520" s="1">
-        <v>46</v>
-      </c>
-      <c r="B520" s="2">
-        <v>5221</v>
-      </c>
-      <c r="C520">
-        <v>0</v>
-      </c>
-      <c r="D520" s="1">
-        <v>145</v>
-      </c>
-      <c r="E520" s="1">
-        <v>220</v>
-      </c>
-      <c r="F520" s="1">
-        <v>100</v>
-      </c>
-      <c r="G520" s="4">
-        <v>10</v>
-      </c>
-      <c r="H520" s="4">
-        <v>3</v>
-      </c>
-      <c r="I520">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A521" s="1">
-        <v>47</v>
-      </c>
-      <c r="B521" s="2">
-        <v>5222</v>
-      </c>
-      <c r="C521">
-        <v>0</v>
-      </c>
-      <c r="D521" s="1">
-        <v>146</v>
-      </c>
-      <c r="E521" s="1">
-        <v>220</v>
-      </c>
-      <c r="F521" s="1">
-        <v>100</v>
-      </c>
-      <c r="G521" s="4">
-        <v>10</v>
-      </c>
-      <c r="H521" s="4">
-        <v>3</v>
-      </c>
-      <c r="I521">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A522" s="1">
-        <v>48</v>
-      </c>
-      <c r="B522" s="2">
-        <v>5223</v>
-      </c>
-      <c r="C522">
-        <v>0</v>
-      </c>
-      <c r="D522" s="1">
-        <v>146</v>
-      </c>
-      <c r="E522" s="1">
-        <v>220</v>
-      </c>
-      <c r="F522" s="1">
-        <v>100</v>
-      </c>
-      <c r="G522" s="4">
-        <v>10</v>
-      </c>
-      <c r="H522" s="4">
-        <v>3</v>
-      </c>
-      <c r="I522">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A523" s="1">
-        <v>49</v>
-      </c>
-      <c r="B523" s="2">
-        <v>5224</v>
-      </c>
-      <c r="C523">
-        <v>0</v>
-      </c>
-      <c r="D523" s="1">
-        <v>146</v>
-      </c>
-      <c r="E523" s="1">
-        <v>220</v>
-      </c>
-      <c r="F523" s="1">
-        <v>100</v>
-      </c>
-      <c r="G523" s="4">
-        <v>10</v>
-      </c>
-      <c r="H523" s="4">
-        <v>3</v>
-      </c>
-      <c r="I523">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A524" s="1">
-        <v>50</v>
-      </c>
-      <c r="B524" s="2">
-        <v>5225</v>
-      </c>
-      <c r="C524">
-        <v>0</v>
-      </c>
-      <c r="D524" s="1">
-        <v>147</v>
-      </c>
-      <c r="E524" s="1">
-        <v>220</v>
-      </c>
-      <c r="F524" s="1">
-        <v>100</v>
-      </c>
-      <c r="G524" s="4">
-        <v>10</v>
-      </c>
-      <c r="H524" s="4">
-        <v>3</v>
-      </c>
-      <c r="I524">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A525" s="1">
-        <v>51</v>
-      </c>
-      <c r="B525" s="2">
-        <v>5226</v>
-      </c>
-      <c r="C525">
-        <v>0</v>
-      </c>
-      <c r="D525" s="1">
-        <v>147</v>
-      </c>
-      <c r="E525" s="1">
-        <v>220</v>
-      </c>
-      <c r="F525" s="1">
-        <v>100</v>
-      </c>
-      <c r="G525" s="4">
-        <v>10</v>
-      </c>
-      <c r="H525" s="4">
-        <v>3</v>
-      </c>
-      <c r="I525">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A526" s="1">
-        <v>52</v>
-      </c>
-      <c r="B526" s="2">
-        <v>5227</v>
-      </c>
-      <c r="C526">
-        <v>0</v>
-      </c>
-      <c r="D526" s="1">
-        <v>147</v>
-      </c>
-      <c r="E526" s="1">
-        <v>220</v>
-      </c>
-      <c r="F526" s="1">
-        <v>100</v>
-      </c>
-      <c r="G526" s="4">
-        <v>10</v>
-      </c>
-      <c r="H526" s="4">
-        <v>3</v>
-      </c>
-      <c r="I526">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A527" s="1">
-        <v>53</v>
-      </c>
-      <c r="B527" s="2">
-        <v>5228</v>
-      </c>
-      <c r="C527">
-        <v>0</v>
-      </c>
-      <c r="D527" s="1">
-        <v>148</v>
-      </c>
-      <c r="E527" s="1">
-        <v>220</v>
-      </c>
-      <c r="F527" s="1">
-        <v>100</v>
-      </c>
-      <c r="G527" s="4">
-        <v>10</v>
-      </c>
-      <c r="H527" s="4">
-        <v>3</v>
-      </c>
-      <c r="I527">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A528" s="1">
-        <v>54</v>
-      </c>
-      <c r="B528" s="2">
-        <v>5229</v>
-      </c>
-      <c r="C528">
-        <v>0</v>
-      </c>
-      <c r="D528" s="1">
-        <v>148</v>
-      </c>
-      <c r="E528" s="1">
-        <v>220</v>
-      </c>
-      <c r="F528" s="1">
-        <v>100</v>
-      </c>
-      <c r="G528" s="4">
-        <v>10</v>
-      </c>
-      <c r="H528" s="4">
-        <v>3</v>
-      </c>
-      <c r="I528">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A529" s="1">
-        <v>55</v>
-      </c>
-      <c r="B529" s="2">
-        <v>5230</v>
-      </c>
-      <c r="C529">
-        <v>0</v>
-      </c>
-      <c r="D529" s="1">
-        <v>148</v>
-      </c>
-      <c r="E529" s="1">
-        <v>220</v>
-      </c>
-      <c r="F529" s="1">
-        <v>100</v>
-      </c>
-      <c r="G529" s="4">
-        <v>10</v>
-      </c>
-      <c r="H529" s="4">
-        <v>3</v>
-      </c>
-      <c r="I529">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A530" s="1">
-        <v>56</v>
-      </c>
-      <c r="B530" s="2">
-        <v>5231</v>
-      </c>
-      <c r="C530">
-        <v>0</v>
-      </c>
-      <c r="D530" s="1">
-        <v>149</v>
-      </c>
-      <c r="E530" s="1">
-        <v>220</v>
-      </c>
-      <c r="F530" s="1">
-        <v>100</v>
-      </c>
-      <c r="G530" s="4">
-        <v>10</v>
-      </c>
-      <c r="H530" s="4">
-        <v>3</v>
-      </c>
-      <c r="I530">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A531" s="1">
-        <v>57</v>
-      </c>
-      <c r="B531" s="2">
-        <v>5232</v>
-      </c>
-      <c r="C531">
-        <v>0</v>
-      </c>
-      <c r="D531" s="1">
-        <v>149</v>
-      </c>
-      <c r="E531" s="1">
-        <v>220</v>
-      </c>
-      <c r="F531" s="1">
-        <v>100</v>
-      </c>
-      <c r="G531" s="4">
-        <v>10</v>
-      </c>
-      <c r="H531" s="4">
-        <v>3</v>
-      </c>
-      <c r="I531">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A532" s="1">
-        <v>58</v>
-      </c>
-      <c r="B532" s="2">
-        <v>5233</v>
-      </c>
-      <c r="C532">
-        <v>0</v>
-      </c>
-      <c r="D532" s="1">
-        <v>149</v>
-      </c>
-      <c r="E532" s="1">
-        <v>220</v>
-      </c>
-      <c r="F532" s="1">
-        <v>100</v>
-      </c>
-      <c r="G532" s="4">
-        <v>10</v>
-      </c>
-      <c r="H532" s="4">
-        <v>3</v>
-      </c>
-      <c r="I532">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A533" s="1">
-        <v>59</v>
-      </c>
-      <c r="B533" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C533">
-        <v>0</v>
-      </c>
-      <c r="D533" s="1">
-        <v>150</v>
-      </c>
-      <c r="E533" s="1">
-        <v>220</v>
-      </c>
-      <c r="F533" s="1">
-        <v>100</v>
-      </c>
-      <c r="G533" s="4">
-        <v>10</v>
-      </c>
-      <c r="H533" s="4">
-        <v>3</v>
-      </c>
-      <c r="I533">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A534" s="1">
-        <v>60</v>
-      </c>
-      <c r="B534" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C534">
-        <v>0</v>
-      </c>
-      <c r="D534" s="1">
-        <v>150</v>
-      </c>
-      <c r="E534" s="1">
-        <v>220</v>
-      </c>
-      <c r="F534" s="1">
-        <v>100</v>
-      </c>
-      <c r="G534" s="4">
-        <v>10</v>
-      </c>
-      <c r="H534" s="4">
-        <v>3</v>
-      </c>
-      <c r="I534">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A536" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A537" s="1">
-        <v>129</v>
-      </c>
-      <c r="B537" s="2">
-        <v>1787</v>
-      </c>
-      <c r="C537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A538" s="1">
-        <v>130</v>
-      </c>
-      <c r="B538" s="2">
-        <v>1788</v>
-      </c>
-      <c r="C538">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A539" s="1">
-        <v>131</v>
-      </c>
-      <c r="B539" s="2">
-        <v>1789</v>
-      </c>
-      <c r="C539">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A540" s="1">
-        <v>132</v>
-      </c>
-      <c r="B540" s="2">
-        <v>1790</v>
-      </c>
-      <c r="C540">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A541" s="1">
-        <v>133</v>
-      </c>
-      <c r="B541" s="2">
-        <v>1791</v>
-      </c>
-      <c r="C541">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A542" s="1">
-        <v>134</v>
-      </c>
-      <c r="B542" s="2">
-        <v>2580</v>
-      </c>
-      <c r="C542">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A543" s="1">
-        <v>135</v>
-      </c>
-      <c r="B543" s="2">
-        <v>1793</v>
-      </c>
-      <c r="C543">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A544" s="1">
-        <v>136</v>
-      </c>
-      <c r="B544" s="2">
-        <v>1794</v>
-      </c>
-      <c r="C544">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A545" s="1">
-        <v>137</v>
-      </c>
-      <c r="B545" s="2">
-        <v>1795</v>
-      </c>
-      <c r="C545">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A546" s="1">
-        <v>138</v>
-      </c>
-      <c r="B546" s="2">
-        <v>1548</v>
-      </c>
-      <c r="C546">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A547" s="1">
-        <v>139</v>
-      </c>
-      <c r="B547" s="2">
-        <v>1803</v>
-      </c>
-      <c r="C547">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A548" s="1">
-        <v>140</v>
-      </c>
-      <c r="B548" s="2">
-        <v>1588</v>
-      </c>
-      <c r="C548">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A549" s="1">
-        <v>141</v>
-      </c>
-      <c r="B549" s="2">
-        <v>1805</v>
-      </c>
-      <c r="C549">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A550" s="1">
-        <v>142</v>
-      </c>
-      <c r="B550" s="2">
-        <v>1806</v>
-      </c>
-      <c r="C550">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A551" s="1">
-        <v>143</v>
-      </c>
-      <c r="B551" s="2">
-        <v>1811</v>
-      </c>
-      <c r="C551">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A552" s="1">
-        <v>144</v>
-      </c>
-      <c r="B552" s="2">
-        <v>1812</v>
-      </c>
-      <c r="C552">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A553" s="1">
-        <v>145</v>
-      </c>
-      <c r="B553" s="2">
-        <v>1813</v>
-      </c>
-      <c r="C553">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A554" s="1">
-        <v>146</v>
-      </c>
-      <c r="B554" s="2">
-        <v>1814</v>
-      </c>
-      <c r="C554">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A555" s="1">
-        <v>147</v>
-      </c>
-      <c r="B555" s="2">
-        <v>1815</v>
-      </c>
-      <c r="C555">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A556" s="1">
-        <v>148</v>
-      </c>
-      <c r="B556" s="2">
-        <v>1816</v>
-      </c>
-      <c r="C556">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A557" s="1">
-        <v>149</v>
-      </c>
-      <c r="B557" s="2">
-        <v>1817</v>
-      </c>
-      <c r="C557">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A558" s="1">
-        <v>150</v>
-      </c>
-      <c r="B558" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C558">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A562" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A563" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A564" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A565" s="1">
-        <v>1</v>
-      </c>
-      <c r="B565" s="2">
-        <v>5258</v>
-      </c>
-      <c r="C565">
-        <v>0</v>
-      </c>
-      <c r="D565" s="1">
-        <v>129</v>
-      </c>
-      <c r="E565" s="1">
-        <v>220</v>
-      </c>
-      <c r="F565" s="1">
-        <v>100</v>
-      </c>
-      <c r="G565" s="4">
-        <v>10</v>
-      </c>
-      <c r="H565" s="4">
-        <v>3</v>
-      </c>
-      <c r="I565">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A566" s="1">
-        <v>2</v>
-      </c>
-      <c r="B566" s="2">
-        <v>5259</v>
-      </c>
-      <c r="C566">
-        <v>0</v>
-      </c>
-      <c r="D566" s="1">
-        <v>129</v>
-      </c>
-      <c r="E566" s="1">
-        <v>220</v>
-      </c>
-      <c r="F566" s="1">
-        <v>100</v>
-      </c>
-      <c r="G566" s="4">
-        <v>10</v>
-      </c>
-      <c r="H566" s="4">
-        <v>3</v>
-      </c>
-      <c r="I566">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A567" s="1">
-        <v>3</v>
-      </c>
-      <c r="B567" s="2">
-        <v>5260</v>
-      </c>
-      <c r="C567">
-        <v>0</v>
-      </c>
-      <c r="D567" s="1">
-        <v>129</v>
-      </c>
-      <c r="E567" s="1">
-        <v>220</v>
-      </c>
-      <c r="F567" s="1">
-        <v>100</v>
-      </c>
-      <c r="G567" s="4">
-        <v>10</v>
-      </c>
-      <c r="H567" s="4">
-        <v>3</v>
-      </c>
-      <c r="I567">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A568" s="1">
-        <v>4</v>
-      </c>
-      <c r="B568" s="2">
-        <v>5261</v>
-      </c>
-      <c r="C568">
-        <v>0</v>
-      </c>
-      <c r="D568" s="1">
-        <v>130</v>
-      </c>
-      <c r="E568" s="1">
-        <v>220</v>
-      </c>
-      <c r="F568" s="1">
-        <v>100</v>
-      </c>
-      <c r="G568" s="4">
-        <v>10</v>
-      </c>
-      <c r="H568" s="4">
-        <v>3</v>
-      </c>
-      <c r="I568">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A569" s="1">
-        <v>5</v>
-      </c>
-      <c r="B569" s="2">
-        <v>5262</v>
-      </c>
-      <c r="C569">
-        <v>0</v>
-      </c>
-      <c r="D569" s="1">
-        <v>130</v>
-      </c>
-      <c r="E569" s="1">
-        <v>220</v>
-      </c>
-      <c r="F569" s="1">
-        <v>100</v>
-      </c>
-      <c r="G569" s="4">
-        <v>10</v>
-      </c>
-      <c r="H569" s="4">
-        <v>3</v>
-      </c>
-      <c r="I569">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A570" s="1">
-        <v>6</v>
-      </c>
-      <c r="B570" s="2">
-        <v>5263</v>
-      </c>
-      <c r="C570">
-        <v>0</v>
-      </c>
-      <c r="D570" s="1">
-        <v>130</v>
-      </c>
-      <c r="E570" s="1">
-        <v>220</v>
-      </c>
-      <c r="F570" s="1">
-        <v>100</v>
-      </c>
-      <c r="G570" s="4">
-        <v>10</v>
-      </c>
-      <c r="H570" s="4">
-        <v>3</v>
-      </c>
-      <c r="I570">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A571" s="1">
-        <v>7</v>
-      </c>
-      <c r="B571" s="2">
-        <v>5264</v>
-      </c>
-      <c r="C571">
-        <v>0</v>
-      </c>
-      <c r="D571" s="1">
-        <v>131</v>
-      </c>
-      <c r="E571" s="1">
-        <v>220</v>
-      </c>
-      <c r="F571" s="1">
-        <v>100</v>
-      </c>
-      <c r="G571" s="4">
-        <v>10</v>
-      </c>
-      <c r="H571" s="4">
-        <v>3</v>
-      </c>
-      <c r="I571">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A572" s="1">
-        <v>8</v>
-      </c>
-      <c r="B572" s="2">
-        <v>5265</v>
-      </c>
-      <c r="C572">
-        <v>0</v>
-      </c>
-      <c r="D572" s="1">
-        <v>131</v>
-      </c>
-      <c r="E572" s="1">
-        <v>220</v>
-      </c>
-      <c r="F572" s="1">
-        <v>100</v>
-      </c>
-      <c r="G572" s="4">
-        <v>10</v>
-      </c>
-      <c r="H572" s="4">
-        <v>3</v>
-      </c>
-      <c r="I572">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A573" s="1">
-        <v>9</v>
-      </c>
-      <c r="B573" s="2">
-        <v>5266</v>
-      </c>
-      <c r="C573">
-        <v>0</v>
-      </c>
-      <c r="D573" s="1">
-        <v>132</v>
-      </c>
-      <c r="E573" s="1">
-        <v>220</v>
-      </c>
-      <c r="F573" s="1">
-        <v>100</v>
-      </c>
-      <c r="G573" s="4">
-        <v>10</v>
-      </c>
-      <c r="H573" s="4">
-        <v>3</v>
-      </c>
-      <c r="I573">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A574" s="1">
-        <v>10</v>
-      </c>
-      <c r="B574" s="2">
-        <v>5267</v>
-      </c>
-      <c r="C574">
-        <v>0</v>
-      </c>
-      <c r="D574" s="1">
-        <v>132</v>
-      </c>
-      <c r="E574" s="1">
-        <v>220</v>
-      </c>
-      <c r="F574" s="1">
-        <v>100</v>
-      </c>
-      <c r="G574" s="4">
-        <v>10</v>
-      </c>
-      <c r="H574" s="4">
-        <v>3</v>
-      </c>
-      <c r="I574">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A575" s="1">
-        <v>11</v>
-      </c>
-      <c r="B575" s="2">
-        <v>5268</v>
-      </c>
-      <c r="C575">
-        <v>0</v>
-      </c>
-      <c r="D575" s="1">
-        <v>132</v>
-      </c>
-      <c r="E575" s="1">
-        <v>220</v>
-      </c>
-      <c r="F575" s="1">
-        <v>100</v>
-      </c>
-      <c r="G575" s="4">
-        <v>10</v>
-      </c>
-      <c r="H575" s="4">
-        <v>3</v>
-      </c>
-      <c r="I575">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A576" s="1">
-        <v>12</v>
-      </c>
-      <c r="B576" s="2">
-        <v>5269</v>
-      </c>
-      <c r="C576">
-        <v>0</v>
-      </c>
-      <c r="D576" s="1">
-        <v>133</v>
-      </c>
-      <c r="E576" s="1">
-        <v>220</v>
-      </c>
-      <c r="F576" s="1">
-        <v>100</v>
-      </c>
-      <c r="G576" s="4">
-        <v>10</v>
-      </c>
-      <c r="H576" s="4">
-        <v>3</v>
-      </c>
-      <c r="I576">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A577" s="1">
-        <v>13</v>
-      </c>
-      <c r="B577" s="2">
-        <v>5270</v>
-      </c>
-      <c r="C577">
-        <v>0</v>
-      </c>
-      <c r="D577" s="1">
-        <v>133</v>
-      </c>
-      <c r="E577" s="1">
-        <v>220</v>
-      </c>
-      <c r="F577" s="1">
-        <v>100</v>
-      </c>
-      <c r="G577" s="4">
-        <v>10</v>
-      </c>
-      <c r="H577" s="4">
-        <v>3</v>
-      </c>
-      <c r="I577">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A578" s="1">
-        <v>14</v>
-      </c>
-      <c r="B578" s="2">
-        <v>5271</v>
-      </c>
-      <c r="C578">
-        <v>0</v>
-      </c>
-      <c r="D578" s="1">
-        <v>133</v>
-      </c>
-      <c r="E578" s="1">
-        <v>220</v>
-      </c>
-      <c r="F578" s="1">
-        <v>100</v>
-      </c>
-      <c r="G578" s="4">
-        <v>10</v>
-      </c>
-      <c r="H578" s="4">
-        <v>3</v>
-      </c>
-      <c r="I578">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A579" s="1">
-        <v>15</v>
-      </c>
-      <c r="B579" s="2">
-        <v>5272</v>
-      </c>
-      <c r="C579">
-        <v>0</v>
-      </c>
-      <c r="D579" s="1">
-        <v>134</v>
-      </c>
-      <c r="E579" s="1">
-        <v>220</v>
-      </c>
-      <c r="F579" s="1">
-        <v>100</v>
-      </c>
-      <c r="G579" s="4">
-        <v>10</v>
-      </c>
-      <c r="H579" s="4">
-        <v>3</v>
-      </c>
-      <c r="I579">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A580" s="1">
-        <v>16</v>
-      </c>
-      <c r="B580" s="2">
-        <v>5273</v>
-      </c>
-      <c r="C580">
-        <v>0</v>
-      </c>
-      <c r="D580" s="1">
-        <v>134</v>
-      </c>
-      <c r="E580" s="1">
-        <v>220</v>
-      </c>
-      <c r="F580" s="1">
-        <v>100</v>
-      </c>
-      <c r="G580" s="4">
-        <v>10</v>
-      </c>
-      <c r="H580" s="4">
-        <v>3</v>
-      </c>
-      <c r="I580">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A581" s="1">
-        <v>17</v>
-      </c>
-      <c r="B581" s="2">
-        <v>5274</v>
-      </c>
-      <c r="C581">
-        <v>0</v>
-      </c>
-      <c r="D581" s="1">
-        <v>134</v>
-      </c>
-      <c r="E581" s="1">
-        <v>220</v>
-      </c>
-      <c r="F581" s="1">
-        <v>100</v>
-      </c>
-      <c r="G581" s="4">
-        <v>10</v>
-      </c>
-      <c r="H581" s="4">
-        <v>3</v>
-      </c>
-      <c r="I581">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A582" s="1">
-        <v>18</v>
-      </c>
-      <c r="B582" s="2">
-        <v>5289</v>
-      </c>
-      <c r="C582">
-        <v>0</v>
-      </c>
-      <c r="D582" s="1">
-        <v>135</v>
-      </c>
-      <c r="E582" s="1">
-        <v>220</v>
-      </c>
-      <c r="F582" s="1">
-        <v>100</v>
-      </c>
-      <c r="G582" s="4">
-        <v>10</v>
-      </c>
-      <c r="H582" s="4">
-        <v>3</v>
-      </c>
-      <c r="I582">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A583" s="1">
-        <v>19</v>
-      </c>
-      <c r="B583" s="2">
-        <v>5290</v>
-      </c>
-      <c r="C583">
-        <v>0</v>
-      </c>
-      <c r="D583" s="1">
-        <v>135</v>
-      </c>
-      <c r="E583" s="1">
-        <v>220</v>
-      </c>
-      <c r="F583" s="1">
-        <v>100</v>
-      </c>
-      <c r="G583" s="4">
-        <v>10</v>
-      </c>
-      <c r="H583" s="4">
-        <v>3</v>
-      </c>
-      <c r="I583">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A584" s="1">
-        <v>20</v>
-      </c>
-      <c r="B584" s="2">
-        <v>5291</v>
-      </c>
-      <c r="C584">
-        <v>0</v>
-      </c>
-      <c r="D584" s="1">
-        <v>136</v>
-      </c>
-      <c r="E584" s="1">
-        <v>220</v>
-      </c>
-      <c r="F584" s="1">
-        <v>100</v>
-      </c>
-      <c r="G584" s="4">
-        <v>10</v>
-      </c>
-      <c r="H584" s="4">
-        <v>3</v>
-      </c>
-      <c r="I584">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A585" s="1">
-        <v>21</v>
-      </c>
-      <c r="B585" s="2">
-        <v>5292</v>
-      </c>
-      <c r="C585">
-        <v>0</v>
-      </c>
-      <c r="D585" s="1">
-        <v>136</v>
-      </c>
-      <c r="E585" s="1">
-        <v>220</v>
-      </c>
-      <c r="F585" s="1">
-        <v>100</v>
-      </c>
-      <c r="G585" s="4">
-        <v>10</v>
-      </c>
-      <c r="H585" s="4">
-        <v>3</v>
-      </c>
-      <c r="I585">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A586" s="1">
-        <v>22</v>
-      </c>
-      <c r="B586" s="2">
-        <v>5293</v>
-      </c>
-      <c r="C586">
-        <v>0</v>
-      </c>
-      <c r="D586" s="1">
-        <v>136</v>
-      </c>
-      <c r="E586" s="1">
-        <v>220</v>
-      </c>
-      <c r="F586" s="1">
-        <v>100</v>
-      </c>
-      <c r="G586" s="4">
-        <v>10</v>
-      </c>
-      <c r="H586" s="4">
-        <v>3</v>
-      </c>
-      <c r="I586">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A587" s="1">
-        <v>23</v>
-      </c>
-      <c r="B587" s="2">
-        <v>5294</v>
-      </c>
-      <c r="C587">
-        <v>0</v>
-      </c>
-      <c r="D587" s="1">
-        <v>137</v>
-      </c>
-      <c r="E587" s="1">
-        <v>220</v>
-      </c>
-      <c r="F587" s="1">
-        <v>100</v>
-      </c>
-      <c r="G587" s="4">
-        <v>10</v>
-      </c>
-      <c r="H587" s="4">
-        <v>3</v>
-      </c>
-      <c r="I587">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A588" s="1">
-        <v>24</v>
-      </c>
-      <c r="B588" s="2">
-        <v>5295</v>
-      </c>
-      <c r="C588">
-        <v>0</v>
-      </c>
-      <c r="D588" s="1">
-        <v>137</v>
-      </c>
-      <c r="E588" s="1">
-        <v>220</v>
-      </c>
-      <c r="F588" s="1">
-        <v>100</v>
-      </c>
-      <c r="G588" s="4">
-        <v>10</v>
-      </c>
-      <c r="H588" s="4">
-        <v>3</v>
-      </c>
-      <c r="I588">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A589" s="1">
-        <v>25</v>
-      </c>
-      <c r="B589" s="2">
-        <v>5296</v>
-      </c>
-      <c r="C589">
-        <v>0</v>
-      </c>
-      <c r="D589" s="1">
-        <v>137</v>
-      </c>
-      <c r="E589" s="1">
-        <v>220</v>
-      </c>
-      <c r="F589" s="1">
-        <v>100</v>
-      </c>
-      <c r="G589" s="4">
-        <v>10</v>
-      </c>
-      <c r="H589" s="4">
-        <v>3</v>
-      </c>
-      <c r="I589">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A590" s="1">
-        <v>26</v>
-      </c>
-      <c r="B590" s="2">
-        <v>5297</v>
-      </c>
-      <c r="C590">
-        <v>0</v>
-      </c>
-      <c r="D590" s="1">
-        <v>138</v>
-      </c>
-      <c r="E590" s="1">
-        <v>220</v>
-      </c>
-      <c r="F590" s="1">
-        <v>100</v>
-      </c>
-      <c r="G590" s="4">
-        <v>10</v>
-      </c>
-      <c r="H590" s="4">
-        <v>3</v>
-      </c>
-      <c r="I590">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A591" s="1">
-        <v>27</v>
-      </c>
-      <c r="B591" s="2">
-        <v>5298</v>
-      </c>
-      <c r="C591">
-        <v>0</v>
-      </c>
-      <c r="D591" s="1">
-        <v>138</v>
-      </c>
-      <c r="E591" s="1">
-        <v>220</v>
-      </c>
-      <c r="F591" s="1">
-        <v>100</v>
-      </c>
-      <c r="G591" s="4">
-        <v>10</v>
-      </c>
-      <c r="H591" s="4">
-        <v>3</v>
-      </c>
-      <c r="I591">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A592" s="1">
-        <v>28</v>
-      </c>
-      <c r="B592" s="2">
-        <v>5299</v>
-      </c>
-      <c r="C592">
-        <v>0</v>
-      </c>
-      <c r="D592" s="1">
-        <v>138</v>
-      </c>
-      <c r="E592" s="1">
-        <v>220</v>
-      </c>
-      <c r="F592" s="1">
-        <v>100</v>
-      </c>
-      <c r="G592" s="4">
-        <v>10</v>
-      </c>
-      <c r="H592" s="4">
-        <v>3</v>
-      </c>
-      <c r="I592">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A593" s="1">
-        <v>29</v>
-      </c>
-      <c r="B593" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C593">
-        <v>0</v>
-      </c>
-      <c r="D593" s="1">
-        <v>139</v>
-      </c>
-      <c r="E593" s="1">
-        <v>220</v>
-      </c>
-      <c r="F593" s="1">
-        <v>100</v>
-      </c>
-      <c r="G593" s="4">
-        <v>10</v>
-      </c>
-      <c r="H593" s="4">
-        <v>3</v>
-      </c>
-      <c r="I593">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A594" s="1">
-        <v>30</v>
-      </c>
-      <c r="B594" s="2">
-        <v>70001</v>
-      </c>
-      <c r="C594">
-        <v>0</v>
-      </c>
-      <c r="D594" s="1">
-        <v>140</v>
-      </c>
-      <c r="E594" s="1">
-        <v>220</v>
-      </c>
-      <c r="F594" s="1">
-        <v>100</v>
-      </c>
-      <c r="G594" s="4">
-        <v>10</v>
-      </c>
-      <c r="H594" s="4">
-        <v>3</v>
-      </c>
-      <c r="I594">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A597" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A598" s="1">
-        <v>129</v>
-      </c>
-      <c r="B598" s="2">
-        <v>1827</v>
-      </c>
-      <c r="C598">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A599" s="1">
-        <v>130</v>
-      </c>
-      <c r="B599" s="2">
-        <v>1828</v>
-      </c>
-      <c r="C599">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A600" s="1">
-        <v>131</v>
-      </c>
-      <c r="B600" s="2">
-        <v>1829</v>
-      </c>
-      <c r="C600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A601" s="1">
-        <v>132</v>
-      </c>
-      <c r="B601" s="2">
-        <v>1830</v>
-      </c>
-      <c r="C601">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A602" s="1">
-        <v>133</v>
-      </c>
-      <c r="B602" s="2">
-        <v>556</v>
-      </c>
-      <c r="C602">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A603" s="1">
-        <v>134</v>
-      </c>
-      <c r="B603" s="2">
-        <v>1832</v>
-      </c>
-      <c r="C603">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A604" s="1">
-        <v>135</v>
-      </c>
-      <c r="B604" s="2">
-        <v>2582</v>
-      </c>
-      <c r="C604">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A605" s="1">
-        <v>136</v>
-      </c>
-      <c r="B605" s="2">
-        <v>557</v>
-      </c>
-      <c r="C605">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A606" s="1">
-        <v>137</v>
-      </c>
-      <c r="B606" s="2">
-        <v>492</v>
-      </c>
-      <c r="C606">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A607" s="1">
-        <v>138</v>
-      </c>
-      <c r="B607" s="2">
-        <v>156</v>
-      </c>
-      <c r="C607">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A608" s="1">
-        <v>139</v>
-      </c>
-      <c r="B608" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C608">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A609" s="1">
-        <v>140</v>
-      </c>
-      <c r="B609" s="2">
-        <v>70001</v>
-      </c>
-      <c r="C609">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A612" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A613" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A614" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A615" s="1">
-        <v>1</v>
-      </c>
-      <c r="B615" s="2">
-        <v>5234</v>
-      </c>
-      <c r="C615">
-        <v>0</v>
-      </c>
-      <c r="D615" s="1">
-        <v>129</v>
-      </c>
-      <c r="E615" s="1">
-        <v>220</v>
-      </c>
-      <c r="F615" s="1">
-        <v>100</v>
-      </c>
-      <c r="G615" s="4">
-        <v>10</v>
-      </c>
-      <c r="H615" s="4">
-        <v>3</v>
-      </c>
-      <c r="I615">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A616" s="1">
-        <v>2</v>
-      </c>
-      <c r="B616" s="2">
-        <v>5235</v>
-      </c>
-      <c r="C616">
-        <v>0</v>
-      </c>
-      <c r="D616" s="1">
-        <v>129</v>
-      </c>
-      <c r="E616" s="1">
-        <v>220</v>
-      </c>
-      <c r="F616" s="1">
-        <v>100</v>
-      </c>
-      <c r="G616" s="4">
-        <v>10</v>
-      </c>
-      <c r="H616" s="4">
-        <v>3</v>
-      </c>
-      <c r="I616">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A617" s="1">
-        <v>3</v>
-      </c>
-      <c r="B617" s="2">
-        <v>5236</v>
-      </c>
-      <c r="C617">
-        <v>0</v>
-      </c>
-      <c r="D617" s="1">
-        <v>129</v>
-      </c>
-      <c r="E617" s="1">
-        <v>220</v>
-      </c>
-      <c r="F617" s="1">
-        <v>100</v>
-      </c>
-      <c r="G617" s="4">
-        <v>10</v>
-      </c>
-      <c r="H617" s="4">
-        <v>3</v>
-      </c>
-      <c r="I617">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A618" s="1">
-        <v>4</v>
-      </c>
-      <c r="B618" s="2">
-        <v>5237</v>
-      </c>
-      <c r="C618">
-        <v>0</v>
-      </c>
-      <c r="D618" s="1">
-        <v>130</v>
-      </c>
-      <c r="E618" s="1">
-        <v>220</v>
-      </c>
-      <c r="F618" s="1">
-        <v>100</v>
-      </c>
-      <c r="G618" s="4">
-        <v>10</v>
-      </c>
-      <c r="H618" s="4">
-        <v>3</v>
-      </c>
-      <c r="I618">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A619" s="1">
-        <v>5</v>
-      </c>
-      <c r="B619" s="2">
-        <v>5238</v>
-      </c>
-      <c r="C619">
-        <v>0</v>
-      </c>
-      <c r="D619" s="1">
-        <v>130</v>
-      </c>
-      <c r="E619" s="1">
-        <v>220</v>
-      </c>
-      <c r="F619" s="1">
-        <v>100</v>
-      </c>
-      <c r="G619" s="4">
-        <v>10</v>
-      </c>
-      <c r="H619" s="4">
-        <v>3</v>
-      </c>
-      <c r="I619">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A620" s="1">
-        <v>6</v>
-      </c>
-      <c r="B620" s="2">
-        <v>5239</v>
-      </c>
-      <c r="C620">
-        <v>0</v>
-      </c>
-      <c r="D620" s="1">
-        <v>130</v>
-      </c>
-      <c r="E620" s="1">
-        <v>220</v>
-      </c>
-      <c r="F620" s="1">
-        <v>100</v>
-      </c>
-      <c r="G620" s="4">
-        <v>10</v>
-      </c>
-      <c r="H620" s="4">
-        <v>3</v>
-      </c>
-      <c r="I620">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A621" s="1">
-        <v>7</v>
-      </c>
-      <c r="B621" s="2">
-        <v>5240</v>
-      </c>
-      <c r="C621">
-        <v>0</v>
-      </c>
-      <c r="D621" s="1">
-        <v>131</v>
-      </c>
-      <c r="E621" s="1">
-        <v>220</v>
-      </c>
-      <c r="F621" s="1">
-        <v>100</v>
-      </c>
-      <c r="G621" s="4">
-        <v>10</v>
-      </c>
-      <c r="H621" s="4">
-        <v>3</v>
-      </c>
-      <c r="I621">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A622" s="1">
-        <v>8</v>
-      </c>
-      <c r="B622" s="2">
-        <v>5241</v>
-      </c>
-      <c r="C622">
-        <v>0</v>
-      </c>
-      <c r="D622" s="1">
-        <v>131</v>
-      </c>
-      <c r="E622" s="1">
-        <v>220</v>
-      </c>
-      <c r="F622" s="1">
-        <v>100</v>
-      </c>
-      <c r="G622" s="4">
-        <v>10</v>
-      </c>
-      <c r="H622" s="4">
-        <v>3</v>
-      </c>
-      <c r="I622">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A623" s="1">
-        <v>9</v>
-      </c>
-      <c r="B623" s="2">
-        <v>5242</v>
-      </c>
-      <c r="C623">
-        <v>0</v>
-      </c>
-      <c r="D623" s="1">
-        <v>131</v>
-      </c>
-      <c r="E623" s="1">
-        <v>220</v>
-      </c>
-      <c r="F623" s="1">
-        <v>100</v>
-      </c>
-      <c r="G623" s="4">
-        <v>10</v>
-      </c>
-      <c r="H623" s="4">
-        <v>3</v>
-      </c>
-      <c r="I623">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A624" s="1">
-        <v>10</v>
-      </c>
-      <c r="B624" s="2">
-        <v>5243</v>
-      </c>
-      <c r="C624">
-        <v>0</v>
-      </c>
-      <c r="D624" s="1">
-        <v>132</v>
-      </c>
-      <c r="E624" s="1">
-        <v>220</v>
-      </c>
-      <c r="F624" s="1">
-        <v>100</v>
-      </c>
-      <c r="G624" s="4">
-        <v>10</v>
-      </c>
-      <c r="H624" s="4">
-        <v>3</v>
-      </c>
-      <c r="I624">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A625" s="1">
-        <v>11</v>
-      </c>
-      <c r="B625" s="2">
-        <v>5244</v>
-      </c>
-      <c r="C625">
-        <v>0</v>
-      </c>
-      <c r="D625" s="1">
-        <v>132</v>
-      </c>
-      <c r="E625" s="1">
-        <v>220</v>
-      </c>
-      <c r="F625" s="1">
-        <v>100</v>
-      </c>
-      <c r="G625" s="4">
-        <v>10</v>
-      </c>
-      <c r="H625" s="4">
-        <v>3</v>
-      </c>
-      <c r="I625">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A626" s="1">
-        <v>12</v>
-      </c>
-      <c r="B626" s="2">
-        <v>5245</v>
-      </c>
-      <c r="C626">
-        <v>0</v>
-      </c>
-      <c r="D626" s="1">
-        <v>133</v>
-      </c>
-      <c r="E626" s="1">
-        <v>220</v>
-      </c>
-      <c r="F626" s="1">
-        <v>100</v>
-      </c>
-      <c r="G626" s="4">
-        <v>10</v>
-      </c>
-      <c r="H626" s="4">
-        <v>3</v>
-      </c>
-      <c r="I626">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A627" s="1">
-        <v>13</v>
-      </c>
-      <c r="B627" s="2">
-        <v>5246</v>
-      </c>
-      <c r="C627">
-        <v>0</v>
-      </c>
-      <c r="D627" s="1">
-        <v>133</v>
-      </c>
-      <c r="E627" s="1">
-        <v>220</v>
-      </c>
-      <c r="F627" s="1">
-        <v>100</v>
-      </c>
-      <c r="G627" s="4">
-        <v>10</v>
-      </c>
-      <c r="H627" s="4">
-        <v>3</v>
-      </c>
-      <c r="I627">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A628" s="1">
-        <v>14</v>
-      </c>
-      <c r="B628" s="2">
-        <v>5247</v>
-      </c>
-      <c r="C628">
-        <v>0</v>
-      </c>
-      <c r="D628" s="1">
-        <v>133</v>
-      </c>
-      <c r="E628" s="1">
-        <v>220</v>
-      </c>
-      <c r="F628" s="1">
-        <v>100</v>
-      </c>
-      <c r="G628" s="4">
-        <v>10</v>
-      </c>
-      <c r="H628" s="4">
-        <v>3</v>
-      </c>
-      <c r="I628">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A629" s="1">
-        <v>15</v>
-      </c>
-      <c r="B629" s="2">
-        <v>5248</v>
-      </c>
-      <c r="C629">
-        <v>0</v>
-      </c>
-      <c r="D629" s="1">
-        <v>134</v>
-      </c>
-      <c r="E629" s="1">
-        <v>220</v>
-      </c>
-      <c r="F629" s="1">
-        <v>100</v>
-      </c>
-      <c r="G629" s="4">
-        <v>10</v>
-      </c>
-      <c r="H629" s="4">
-        <v>3</v>
-      </c>
-      <c r="I629">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A630" s="1">
-        <v>16</v>
-      </c>
-      <c r="B630" s="2">
-        <v>5249</v>
-      </c>
-      <c r="C630">
-        <v>0</v>
-      </c>
-      <c r="D630" s="1">
-        <v>134</v>
-      </c>
-      <c r="E630" s="1">
-        <v>220</v>
-      </c>
-      <c r="F630" s="1">
-        <v>100</v>
-      </c>
-      <c r="G630" s="4">
-        <v>10</v>
-      </c>
-      <c r="H630" s="4">
-        <v>3</v>
-      </c>
-      <c r="I630">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A631" s="1">
-        <v>17</v>
-      </c>
-      <c r="B631" s="2">
-        <v>5250</v>
-      </c>
-      <c r="C631">
-        <v>0</v>
-      </c>
-      <c r="D631" s="1">
-        <v>134</v>
-      </c>
-      <c r="E631" s="1">
-        <v>220</v>
-      </c>
-      <c r="F631" s="1">
-        <v>100</v>
-      </c>
-      <c r="G631" s="4">
-        <v>10</v>
-      </c>
-      <c r="H631" s="4">
-        <v>3</v>
-      </c>
-      <c r="I631">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A632" s="1">
-        <v>18</v>
-      </c>
-      <c r="B632" s="2">
-        <v>5251</v>
-      </c>
-      <c r="C632">
-        <v>0</v>
-      </c>
-      <c r="D632" s="1">
-        <v>135</v>
-      </c>
-      <c r="E632" s="1">
-        <v>220</v>
-      </c>
-      <c r="F632" s="1">
-        <v>100</v>
-      </c>
-      <c r="G632" s="4">
-        <v>10</v>
-      </c>
-      <c r="H632" s="4">
-        <v>3</v>
-      </c>
-      <c r="I632">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A633" s="1">
-        <v>19</v>
-      </c>
-      <c r="B633" s="2">
-        <v>5252</v>
-      </c>
-      <c r="C633">
-        <v>0</v>
-      </c>
-      <c r="D633" s="1">
-        <v>135</v>
-      </c>
-      <c r="E633" s="1">
-        <v>220</v>
-      </c>
-      <c r="F633" s="1">
-        <v>100</v>
-      </c>
-      <c r="G633" s="4">
-        <v>10</v>
-      </c>
-      <c r="H633" s="4">
-        <v>3</v>
-      </c>
-      <c r="I633">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A634" s="1">
-        <v>20</v>
-      </c>
-      <c r="B634" s="2">
-        <v>5253</v>
-      </c>
-      <c r="C634">
-        <v>0</v>
-      </c>
-      <c r="D634" s="1">
-        <v>135</v>
-      </c>
-      <c r="E634" s="1">
-        <v>220</v>
-      </c>
-      <c r="F634" s="1">
-        <v>100</v>
-      </c>
-      <c r="G634" s="4">
-        <v>10</v>
-      </c>
-      <c r="H634" s="4">
-        <v>3</v>
-      </c>
-      <c r="I634">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A635" s="1">
-        <v>21</v>
-      </c>
-      <c r="B635" s="2">
-        <v>5254</v>
-      </c>
-      <c r="C635">
-        <v>0</v>
-      </c>
-      <c r="D635" s="1">
-        <v>136</v>
-      </c>
-      <c r="E635" s="1">
-        <v>220</v>
-      </c>
-      <c r="F635" s="1">
-        <v>100</v>
-      </c>
-      <c r="G635" s="4">
-        <v>10</v>
-      </c>
-      <c r="H635" s="4">
-        <v>3</v>
-      </c>
-      <c r="I635">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A636" s="1">
-        <v>22</v>
-      </c>
-      <c r="B636" s="2">
-        <v>5255</v>
-      </c>
-      <c r="C636">
-        <v>0</v>
-      </c>
-      <c r="D636" s="1">
-        <v>136</v>
-      </c>
-      <c r="E636" s="1">
-        <v>220</v>
-      </c>
-      <c r="F636" s="1">
-        <v>100</v>
-      </c>
-      <c r="G636" s="4">
-        <v>10</v>
-      </c>
-      <c r="H636" s="4">
-        <v>3</v>
-      </c>
-      <c r="I636">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A637" s="1">
-        <v>23</v>
-      </c>
-      <c r="B637" s="2">
-        <v>5256</v>
-      </c>
-      <c r="C637">
-        <v>0</v>
-      </c>
-      <c r="D637" s="1">
-        <v>137</v>
-      </c>
-      <c r="E637" s="1">
-        <v>220</v>
-      </c>
-      <c r="F637" s="1">
-        <v>100</v>
-      </c>
-      <c r="G637" s="4">
-        <v>10</v>
-      </c>
-      <c r="H637" s="4">
-        <v>3</v>
-      </c>
-      <c r="I637">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A638" s="1">
-        <v>24</v>
-      </c>
-      <c r="B638" s="2">
-        <v>5257</v>
-      </c>
-      <c r="C638">
-        <v>0</v>
-      </c>
-      <c r="D638" s="1">
-        <v>137</v>
-      </c>
-      <c r="E638" s="1">
-        <v>220</v>
-      </c>
-      <c r="F638" s="1">
-        <v>100</v>
-      </c>
-      <c r="G638" s="4">
-        <v>10</v>
-      </c>
-      <c r="H638" s="4">
-        <v>3</v>
-      </c>
-      <c r="I638">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A639" s="1">
-        <v>25</v>
-      </c>
-      <c r="B639" s="2">
-        <v>5275</v>
-      </c>
-      <c r="C639">
-        <v>0</v>
-      </c>
-      <c r="D639" s="1">
-        <v>138</v>
-      </c>
-      <c r="E639" s="1">
-        <v>220</v>
-      </c>
-      <c r="F639" s="1">
-        <v>100</v>
-      </c>
-      <c r="G639" s="4">
-        <v>10</v>
-      </c>
-      <c r="H639" s="4">
-        <v>3</v>
-      </c>
-      <c r="I639">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A640" s="1">
-        <v>26</v>
-      </c>
-      <c r="B640" s="2">
-        <v>5276</v>
-      </c>
-      <c r="C640">
-        <v>0</v>
-      </c>
-      <c r="D640" s="1">
-        <v>138</v>
-      </c>
-      <c r="E640" s="1">
-        <v>220</v>
-      </c>
-      <c r="F640" s="1">
-        <v>100</v>
-      </c>
-      <c r="G640" s="4">
-        <v>10</v>
-      </c>
-      <c r="H640" s="4">
-        <v>3</v>
-      </c>
-      <c r="I640">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A641" s="1">
-        <v>27</v>
-      </c>
-      <c r="B641" s="2">
-        <v>5277</v>
-      </c>
-      <c r="C641">
-        <v>0</v>
-      </c>
-      <c r="D641" s="1">
-        <v>138</v>
-      </c>
-      <c r="E641" s="1">
-        <v>220</v>
-      </c>
-      <c r="F641" s="1">
-        <v>100</v>
-      </c>
-      <c r="G641" s="4">
-        <v>10</v>
-      </c>
-      <c r="H641" s="4">
-        <v>3</v>
-      </c>
-      <c r="I641">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A642" s="1">
-        <v>28</v>
-      </c>
-      <c r="B642" s="2">
-        <v>5278</v>
-      </c>
-      <c r="C642">
-        <v>0</v>
-      </c>
-      <c r="D642" s="1">
-        <v>139</v>
-      </c>
-      <c r="E642" s="1">
-        <v>220</v>
-      </c>
-      <c r="F642" s="1">
-        <v>100</v>
-      </c>
-      <c r="G642" s="4">
-        <v>10</v>
-      </c>
-      <c r="H642" s="4">
-        <v>3</v>
-      </c>
-      <c r="I642">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A643" s="1">
-        <v>29</v>
-      </c>
-      <c r="B643" s="2">
-        <v>5279</v>
-      </c>
-      <c r="C643">
-        <v>0</v>
-      </c>
-      <c r="D643" s="1">
-        <v>139</v>
-      </c>
-      <c r="E643" s="1">
-        <v>220</v>
-      </c>
-      <c r="F643" s="1">
-        <v>100</v>
-      </c>
-      <c r="G643" s="4">
-        <v>10</v>
-      </c>
-      <c r="H643" s="4">
-        <v>3</v>
-      </c>
-      <c r="I643">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A644" s="1">
-        <v>30</v>
-      </c>
-      <c r="B644" s="2">
-        <v>5280</v>
-      </c>
-      <c r="C644">
-        <v>0</v>
-      </c>
-      <c r="D644" s="1">
-        <v>139</v>
-      </c>
-      <c r="E644" s="1">
-        <v>220</v>
-      </c>
-      <c r="F644" s="1">
-        <v>100</v>
-      </c>
-      <c r="G644" s="4">
-        <v>10</v>
-      </c>
-      <c r="H644" s="4">
-        <v>3</v>
-      </c>
-      <c r="I644">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A645" s="1">
-        <v>31</v>
-      </c>
-      <c r="B645" s="2">
-        <v>5281</v>
-      </c>
-      <c r="C645">
-        <v>0</v>
-      </c>
-      <c r="D645" s="1">
-        <v>140</v>
-      </c>
-      <c r="E645" s="1">
-        <v>220</v>
-      </c>
-      <c r="F645" s="1">
-        <v>100</v>
-      </c>
-      <c r="G645" s="4">
-        <v>10</v>
-      </c>
-      <c r="H645" s="4">
-        <v>3</v>
-      </c>
-      <c r="I645">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A646" s="1">
-        <v>32</v>
-      </c>
-      <c r="B646" s="2">
-        <v>5282</v>
-      </c>
-      <c r="C646">
-        <v>0</v>
-      </c>
-      <c r="D646" s="1">
-        <v>140</v>
-      </c>
-      <c r="E646" s="1">
-        <v>220</v>
-      </c>
-      <c r="F646" s="1">
-        <v>100</v>
-      </c>
-      <c r="G646" s="4">
-        <v>10</v>
-      </c>
-      <c r="H646" s="4">
-        <v>3</v>
-      </c>
-      <c r="I646">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A647" s="1">
-        <v>33</v>
-      </c>
-      <c r="B647" s="2">
-        <v>5283</v>
-      </c>
-      <c r="C647">
-        <v>0</v>
-      </c>
-      <c r="D647" s="1">
-        <v>140</v>
-      </c>
-      <c r="E647" s="1">
-        <v>220</v>
-      </c>
-      <c r="F647" s="1">
-        <v>100</v>
-      </c>
-      <c r="G647" s="4">
-        <v>10</v>
-      </c>
-      <c r="H647" s="4">
-        <v>3</v>
-      </c>
-      <c r="I647">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A648" s="1">
-        <v>34</v>
-      </c>
-      <c r="B648" s="2">
-        <v>5284</v>
-      </c>
-      <c r="C648">
-        <v>0</v>
-      </c>
-      <c r="D648" s="1">
-        <v>141</v>
-      </c>
-      <c r="E648" s="1">
-        <v>220</v>
-      </c>
-      <c r="F648" s="1">
-        <v>100</v>
-      </c>
-      <c r="G648" s="4">
-        <v>10</v>
-      </c>
-      <c r="H648" s="4">
-        <v>3</v>
-      </c>
-      <c r="I648">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A649" s="1">
-        <v>35</v>
-      </c>
-      <c r="B649" s="2">
-        <v>5285</v>
-      </c>
-      <c r="C649">
-        <v>0</v>
-      </c>
-      <c r="D649" s="1">
-        <v>141</v>
-      </c>
-      <c r="E649" s="1">
-        <v>220</v>
-      </c>
-      <c r="F649" s="1">
-        <v>100</v>
-      </c>
-      <c r="G649" s="4">
-        <v>10</v>
-      </c>
-      <c r="H649" s="4">
-        <v>3</v>
-      </c>
-      <c r="I649">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A650" s="1">
-        <v>36</v>
-      </c>
-      <c r="B650" s="2">
-        <v>5286</v>
-      </c>
-      <c r="C650">
-        <v>0</v>
-      </c>
-      <c r="D650" s="1">
-        <v>142</v>
-      </c>
-      <c r="E650" s="1">
-        <v>220</v>
-      </c>
-      <c r="F650" s="1">
-        <v>100</v>
-      </c>
-      <c r="G650" s="4">
-        <v>10</v>
-      </c>
-      <c r="H650" s="4">
-        <v>3</v>
-      </c>
-      <c r="I650">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A651" s="1">
-        <v>37</v>
-      </c>
-      <c r="B651" s="2">
-        <v>5287</v>
-      </c>
-      <c r="C651">
-        <v>0</v>
-      </c>
-      <c r="D651" s="1">
-        <v>142</v>
-      </c>
-      <c r="E651" s="1">
-        <v>220</v>
-      </c>
-      <c r="F651" s="1">
-        <v>100</v>
-      </c>
-      <c r="G651" s="4">
-        <v>10</v>
-      </c>
-      <c r="H651" s="4">
-        <v>3</v>
-      </c>
-      <c r="I651">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A652" s="1">
-        <v>38</v>
-      </c>
-      <c r="B652" s="2">
-        <v>5288</v>
-      </c>
-      <c r="C652">
-        <v>0</v>
-      </c>
-      <c r="D652" s="1">
-        <v>142</v>
-      </c>
-      <c r="E652" s="1">
-        <v>220</v>
-      </c>
-      <c r="F652" s="1">
-        <v>100</v>
-      </c>
-      <c r="G652" s="4">
-        <v>10</v>
-      </c>
-      <c r="H652" s="4">
-        <v>3</v>
-      </c>
-      <c r="I652">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A653" s="1">
-        <v>39</v>
-      </c>
-      <c r="B653" s="2">
-        <v>5300</v>
-      </c>
-      <c r="C653">
-        <v>0</v>
-      </c>
-      <c r="D653" s="1">
-        <v>143</v>
-      </c>
-      <c r="E653" s="1">
-        <v>220</v>
-      </c>
-      <c r="F653" s="1">
-        <v>100</v>
-      </c>
-      <c r="G653" s="4">
-        <v>10</v>
-      </c>
-      <c r="H653" s="4">
-        <v>3</v>
-      </c>
-      <c r="I653">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A654" s="1">
-        <v>40</v>
-      </c>
-      <c r="B654" s="2">
-        <v>5301</v>
-      </c>
-      <c r="C654">
-        <v>0</v>
-      </c>
-      <c r="D654" s="1">
-        <v>143</v>
-      </c>
-      <c r="E654" s="1">
-        <v>220</v>
-      </c>
-      <c r="F654" s="1">
-        <v>100</v>
-      </c>
-      <c r="G654" s="4">
-        <v>10</v>
-      </c>
-      <c r="H654" s="4">
-        <v>3</v>
-      </c>
-      <c r="I654">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A655" s="1">
-        <v>41</v>
-      </c>
-      <c r="B655" s="2">
-        <v>5302</v>
-      </c>
-      <c r="C655">
-        <v>0</v>
-      </c>
-      <c r="D655" s="1">
-        <v>143</v>
-      </c>
-      <c r="E655" s="1">
-        <v>220</v>
-      </c>
-      <c r="F655" s="1">
-        <v>100</v>
-      </c>
-      <c r="G655" s="4">
-        <v>10</v>
-      </c>
-      <c r="H655" s="4">
-        <v>3</v>
-      </c>
-      <c r="I655">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A656" s="1">
-        <v>42</v>
-      </c>
-      <c r="B656" s="2">
-        <v>5303</v>
-      </c>
-      <c r="C656">
-        <v>0</v>
-      </c>
-      <c r="D656" s="1">
-        <v>144</v>
-      </c>
-      <c r="E656" s="1">
-        <v>220</v>
-      </c>
-      <c r="F656" s="1">
-        <v>100</v>
-      </c>
-      <c r="G656" s="4">
-        <v>10</v>
-      </c>
-      <c r="H656" s="4">
-        <v>3</v>
-      </c>
-      <c r="I656">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A657" s="1">
-        <v>43</v>
-      </c>
-      <c r="B657" s="2">
-        <v>8623</v>
-      </c>
-      <c r="C657">
-        <v>0</v>
-      </c>
-      <c r="D657" s="1">
-        <v>144</v>
-      </c>
-      <c r="E657" s="1">
-        <v>220</v>
-      </c>
-      <c r="F657" s="1">
-        <v>100</v>
-      </c>
-      <c r="G657" s="4">
-        <v>10</v>
-      </c>
-      <c r="H657" s="4">
-        <v>3</v>
-      </c>
-      <c r="I657">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A658" s="1">
-        <v>44</v>
-      </c>
-      <c r="B658" s="2">
-        <v>5305</v>
-      </c>
-      <c r="C658">
-        <v>0</v>
-      </c>
-      <c r="D658" s="1">
-        <v>145</v>
-      </c>
-      <c r="E658" s="1">
-        <v>220</v>
-      </c>
-      <c r="F658" s="1">
-        <v>100</v>
-      </c>
-      <c r="G658" s="4">
-        <v>10</v>
-      </c>
-      <c r="H658" s="4">
-        <v>3</v>
-      </c>
-      <c r="I658">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A659" s="1">
-        <v>45</v>
-      </c>
-      <c r="B659" s="2">
-        <v>5306</v>
-      </c>
-      <c r="C659">
-        <v>0</v>
-      </c>
-      <c r="D659" s="1">
-        <v>145</v>
-      </c>
-      <c r="E659" s="1">
-        <v>220</v>
-      </c>
-      <c r="F659" s="1">
-        <v>100</v>
-      </c>
-      <c r="G659" s="4">
-        <v>10</v>
-      </c>
-      <c r="H659" s="4">
-        <v>3</v>
-      </c>
-      <c r="I659">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A660" s="1">
-        <v>46</v>
-      </c>
-      <c r="B660" s="2">
-        <v>5307</v>
-      </c>
-      <c r="C660">
-        <v>0</v>
-      </c>
-      <c r="D660" s="1">
-        <v>145</v>
-      </c>
-      <c r="E660" s="1">
-        <v>220</v>
-      </c>
-      <c r="F660" s="1">
-        <v>100</v>
-      </c>
-      <c r="G660" s="4">
-        <v>10</v>
-      </c>
-      <c r="H660" s="4">
-        <v>3</v>
-      </c>
-      <c r="I660">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A661" s="1">
-        <v>47</v>
-      </c>
-      <c r="B661" s="2">
-        <v>5308</v>
-      </c>
-      <c r="C661">
-        <v>0</v>
-      </c>
-      <c r="D661" s="1">
-        <v>146</v>
-      </c>
-      <c r="E661" s="1">
-        <v>220</v>
-      </c>
-      <c r="F661" s="1">
-        <v>100</v>
-      </c>
-      <c r="G661" s="4">
-        <v>10</v>
-      </c>
-      <c r="H661" s="4">
-        <v>3</v>
-      </c>
-      <c r="I661">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A662" s="1">
-        <v>48</v>
-      </c>
-      <c r="B662" s="2">
-        <v>5309</v>
-      </c>
-      <c r="C662">
-        <v>0</v>
-      </c>
-      <c r="D662" s="1">
-        <v>146</v>
-      </c>
-      <c r="E662" s="1">
-        <v>220</v>
-      </c>
-      <c r="F662" s="1">
-        <v>100</v>
-      </c>
-      <c r="G662" s="4">
-        <v>10</v>
-      </c>
-      <c r="H662" s="4">
-        <v>3</v>
-      </c>
-      <c r="I662">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A663" s="1">
-        <v>49</v>
-      </c>
-      <c r="B663" s="2">
-        <v>5310</v>
-      </c>
-      <c r="C663">
-        <v>0</v>
-      </c>
-      <c r="D663" s="1">
-        <v>146</v>
-      </c>
-      <c r="E663" s="1">
-        <v>220</v>
-      </c>
-      <c r="F663" s="1">
-        <v>100</v>
-      </c>
-      <c r="G663" s="4">
-        <v>10</v>
-      </c>
-      <c r="H663" s="4">
-        <v>3</v>
-      </c>
-      <c r="I663">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A664" s="1">
-        <v>50</v>
-      </c>
-      <c r="B664" s="2">
-        <v>5311</v>
-      </c>
-      <c r="C664">
-        <v>0</v>
-      </c>
-      <c r="D664" s="1">
-        <v>147</v>
-      </c>
-      <c r="E664" s="1">
-        <v>220</v>
-      </c>
-      <c r="F664" s="1">
-        <v>100</v>
-      </c>
-      <c r="G664" s="4">
-        <v>10</v>
-      </c>
-      <c r="H664" s="4">
-        <v>3</v>
-      </c>
-      <c r="I664">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A665" s="1">
-        <v>51</v>
-      </c>
-      <c r="B665" s="2">
-        <v>5312</v>
-      </c>
-      <c r="C665">
-        <v>0</v>
-      </c>
-      <c r="D665" s="1">
-        <v>147</v>
-      </c>
-      <c r="E665" s="1">
-        <v>220</v>
-      </c>
-      <c r="F665" s="1">
-        <v>100</v>
-      </c>
-      <c r="G665" s="4">
-        <v>10</v>
-      </c>
-      <c r="H665" s="4">
-        <v>3</v>
-      </c>
-      <c r="I665">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A666" s="1">
-        <v>52</v>
-      </c>
-      <c r="B666" s="2">
-        <v>5313</v>
-      </c>
-      <c r="C666">
-        <v>0</v>
-      </c>
-      <c r="D666" s="1">
-        <v>147</v>
-      </c>
-      <c r="E666" s="1">
-        <v>220</v>
-      </c>
-      <c r="F666" s="1">
-        <v>100</v>
-      </c>
-      <c r="G666" s="4">
-        <v>10</v>
-      </c>
-      <c r="H666" s="4">
-        <v>3</v>
-      </c>
-      <c r="I666">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A667" s="1">
-        <v>53</v>
-      </c>
-      <c r="B667" s="2">
-        <v>5314</v>
-      </c>
-      <c r="C667">
-        <v>0</v>
-      </c>
-      <c r="D667" s="1">
-        <v>148</v>
-      </c>
-      <c r="E667" s="1">
-        <v>220</v>
-      </c>
-      <c r="F667" s="1">
-        <v>100</v>
-      </c>
-      <c r="G667" s="4">
-        <v>10</v>
-      </c>
-      <c r="H667" s="4">
-        <v>3</v>
-      </c>
-      <c r="I667">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A668" s="1">
-        <v>54</v>
-      </c>
-      <c r="B668" s="2">
-        <v>5315</v>
-      </c>
-      <c r="C668">
-        <v>0</v>
-      </c>
-      <c r="D668" s="1">
-        <v>148</v>
-      </c>
-      <c r="E668" s="1">
-        <v>220</v>
-      </c>
-      <c r="F668" s="1">
-        <v>100</v>
-      </c>
-      <c r="G668" s="4">
-        <v>10</v>
-      </c>
-      <c r="H668" s="4">
-        <v>3</v>
-      </c>
-      <c r="I668">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A669" s="1">
-        <v>55</v>
-      </c>
-      <c r="B669" s="2">
-        <v>5316</v>
-      </c>
-      <c r="C669">
-        <v>0</v>
-      </c>
-      <c r="D669" s="1">
-        <v>148</v>
-      </c>
-      <c r="E669" s="1">
-        <v>220</v>
-      </c>
-      <c r="F669" s="1">
-        <v>100</v>
-      </c>
-      <c r="G669" s="4">
-        <v>10</v>
-      </c>
-      <c r="H669" s="4">
-        <v>3</v>
-      </c>
-      <c r="I669">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A670" s="1">
-        <v>56</v>
-      </c>
-      <c r="B670" s="2">
-        <v>5317</v>
-      </c>
-      <c r="C670">
-        <v>0</v>
-      </c>
-      <c r="D670" s="1">
-        <v>149</v>
-      </c>
-      <c r="E670" s="1">
-        <v>220</v>
-      </c>
-      <c r="F670" s="1">
-        <v>100</v>
-      </c>
-      <c r="G670" s="4">
-        <v>10</v>
-      </c>
-      <c r="H670" s="4">
-        <v>3</v>
-      </c>
-      <c r="I670">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A671" s="1">
-        <v>57</v>
-      </c>
-      <c r="B671" s="2">
-        <v>5318</v>
-      </c>
-      <c r="C671">
-        <v>0</v>
-      </c>
-      <c r="D671" s="1">
-        <v>149</v>
-      </c>
-      <c r="E671" s="1">
-        <v>220</v>
-      </c>
-      <c r="F671" s="1">
-        <v>100</v>
-      </c>
-      <c r="G671" s="4">
-        <v>10</v>
-      </c>
-      <c r="H671" s="4">
-        <v>3</v>
-      </c>
-      <c r="I671">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A672" s="1">
-        <v>58</v>
-      </c>
-      <c r="B672" s="2">
-        <v>5319</v>
-      </c>
-      <c r="C672">
-        <v>0</v>
-      </c>
-      <c r="D672" s="1">
-        <v>149</v>
-      </c>
-      <c r="E672" s="1">
-        <v>220</v>
-      </c>
-      <c r="F672" s="1">
-        <v>100</v>
-      </c>
-      <c r="G672" s="4">
-        <v>10</v>
-      </c>
-      <c r="H672" s="4">
-        <v>3</v>
-      </c>
-      <c r="I672">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A673" s="1">
-        <v>59</v>
-      </c>
-      <c r="B673" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C673">
-        <v>0</v>
-      </c>
-      <c r="D673" s="1">
-        <v>150</v>
-      </c>
-      <c r="E673" s="1">
-        <v>220</v>
-      </c>
-      <c r="F673" s="1">
-        <v>100</v>
-      </c>
-      <c r="G673" s="4">
-        <v>10</v>
-      </c>
-      <c r="H673" s="4">
-        <v>3</v>
-      </c>
-      <c r="I673">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A674" s="1">
-        <v>60</v>
-      </c>
-      <c r="B674" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C674">
-        <v>0</v>
-      </c>
-      <c r="D674" s="1">
-        <v>150</v>
-      </c>
-      <c r="E674" s="1">
-        <v>220</v>
-      </c>
-      <c r="F674" s="1">
-        <v>100</v>
-      </c>
-      <c r="G674" s="4">
-        <v>10</v>
-      </c>
-      <c r="H674" s="4">
-        <v>3</v>
-      </c>
-      <c r="I674">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A676" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A677" s="1">
-        <v>129</v>
-      </c>
-      <c r="B677" s="2">
-        <v>1818</v>
-      </c>
-      <c r="C677">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A678" s="1">
-        <v>130</v>
-      </c>
-      <c r="B678" s="2">
-        <v>1604</v>
-      </c>
-      <c r="C678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A679" s="1">
-        <v>131</v>
-      </c>
-      <c r="B679" s="2">
-        <v>1643</v>
-      </c>
-      <c r="C679">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A680" s="1">
-        <v>132</v>
-      </c>
-      <c r="B680" s="2">
-        <v>1821</v>
-      </c>
-      <c r="C680">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A681" s="1">
-        <v>133</v>
-      </c>
-      <c r="B681" s="2">
-        <v>1822</v>
-      </c>
-      <c r="C681">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A682" s="1">
-        <v>134</v>
-      </c>
-      <c r="B682" s="2">
-        <v>1823</v>
-      </c>
-      <c r="C682">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A683" s="1">
-        <v>135</v>
-      </c>
-      <c r="B683" s="2">
-        <v>2581</v>
-      </c>
-      <c r="C683">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A684" s="1">
-        <v>136</v>
-      </c>
-      <c r="B684" s="2">
-        <v>1825</v>
-      </c>
-      <c r="C684">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A685" s="1">
-        <v>137</v>
-      </c>
-      <c r="B685" s="2">
-        <v>1826</v>
-      </c>
-      <c r="C685">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A686" s="1">
-        <v>138</v>
-      </c>
-      <c r="B686" s="2">
-        <v>1833</v>
-      </c>
-      <c r="C686">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A687" s="1">
-        <v>139</v>
-      </c>
-      <c r="B687" s="2">
-        <v>1834</v>
-      </c>
-      <c r="C687">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A688" s="1">
-        <v>140</v>
-      </c>
-      <c r="B688" s="2">
-        <v>1835</v>
-      </c>
-      <c r="C688">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A689" s="1">
-        <v>141</v>
-      </c>
-      <c r="B689" s="2">
-        <v>1836</v>
-      </c>
-      <c r="C689">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A690" s="1">
-        <v>142</v>
-      </c>
-      <c r="B690" s="2">
-        <v>1837</v>
-      </c>
-      <c r="C690">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A691" s="1">
-        <v>143</v>
-      </c>
-      <c r="B691" s="2">
-        <v>1842</v>
-      </c>
-      <c r="C691">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A692" s="1">
-        <v>144</v>
-      </c>
-      <c r="B692" s="2">
-        <v>1843</v>
-      </c>
-      <c r="C692">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A693" s="1">
-        <v>145</v>
-      </c>
-      <c r="B693" s="2">
-        <v>1844</v>
-      </c>
-      <c r="C693">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A694" s="1">
-        <v>146</v>
-      </c>
-      <c r="B694" s="2">
-        <v>1845</v>
-      </c>
-      <c r="C694">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A695" s="1">
-        <v>147</v>
-      </c>
-      <c r="B695" s="2">
-        <v>1846</v>
-      </c>
-      <c r="C695">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A696" s="1">
-        <v>148</v>
-      </c>
-      <c r="B696" s="2">
-        <v>1847</v>
-      </c>
-      <c r="C696">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A697" s="1">
-        <v>149</v>
-      </c>
-      <c r="B697" s="2">
-        <v>1848</v>
-      </c>
-      <c r="C697">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A698" s="1">
-        <v>150</v>
-      </c>
-      <c r="B698" s="2">
-        <v>70000</v>
-      </c>
-      <c r="C698">
         <v>0</v>
       </c>
     </row>

--- a/06_납품현황/2018/01_광교에이스/02_SerialNumber/USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2018/01_광교에이스/02_SerialNumber/USM_LGM_SerialNumber.xlsx
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A106" sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8548,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="B290" s="2">
-        <v>7111</v>
+        <v>9638</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="2">
-        <v>7112</v>
+        <v>9639</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -8606,7 +8606,7 @@
         <v>3</v>
       </c>
       <c r="B292" s="2">
-        <v>7113</v>
+        <v>9640</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>4</v>
       </c>
       <c r="B293" s="2">
-        <v>7114</v>
+        <v>9641</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>5</v>
       </c>
       <c r="B294" s="2">
-        <v>8673</v>
+        <v>9601</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>6</v>
       </c>
       <c r="B295" s="2">
-        <v>7115</v>
+        <v>9602</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>7</v>
       </c>
       <c r="B296" s="2">
-        <v>7116</v>
+        <v>9603</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>8</v>
       </c>
       <c r="B297" s="2">
-        <v>7117</v>
+        <v>9604</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>9</v>
       </c>
       <c r="B298" s="2">
-        <v>7118</v>
+        <v>9605</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -8809,7 +8809,7 @@
         <v>10</v>
       </c>
       <c r="B299" s="2">
-        <v>7119</v>
+        <v>9606</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -8838,7 +8838,7 @@
         <v>11</v>
       </c>
       <c r="B300" s="2">
-        <v>7120</v>
+        <v>9607</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -8866,8 +8866,8 @@
       <c r="A301" s="1">
         <v>12</v>
       </c>
-      <c r="B301" s="5">
-        <v>3</v>
+      <c r="B301" s="2">
+        <v>9608</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -8895,8 +8895,8 @@
       <c r="A302" s="1">
         <v>13</v>
       </c>
-      <c r="B302" s="5">
-        <v>6</v>
+      <c r="B302" s="2">
+        <v>9609</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -8924,8 +8924,8 @@
       <c r="A303" s="1">
         <v>14</v>
       </c>
-      <c r="B303" s="5">
-        <v>7</v>
+      <c r="B303" s="2">
+        <v>9610</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -8953,8 +8953,8 @@
       <c r="A304" s="1">
         <v>15</v>
       </c>
-      <c r="B304" s="5">
-        <v>9</v>
+      <c r="B304" s="2">
+        <v>9611</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -8982,8 +8982,8 @@
       <c r="A305" s="1">
         <v>16</v>
       </c>
-      <c r="B305" s="5">
-        <v>10</v>
+      <c r="B305" s="2">
+        <v>9612</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -9011,8 +9011,8 @@
       <c r="A306" s="1">
         <v>17</v>
       </c>
-      <c r="B306" s="5">
-        <v>637</v>
+      <c r="B306" s="2">
+        <v>9613</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -9040,8 +9040,8 @@
       <c r="A307" s="1">
         <v>18</v>
       </c>
-      <c r="B307" s="5">
-        <v>1954</v>
+      <c r="B307" s="2">
+        <v>9614</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -9069,8 +9069,8 @@
       <c r="A308" s="1">
         <v>19</v>
       </c>
-      <c r="B308" s="5">
-        <v>2470</v>
+      <c r="B308" s="2">
+        <v>9615</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -9098,8 +9098,8 @@
       <c r="A309" s="1">
         <v>20</v>
       </c>
-      <c r="B309" s="5">
-        <v>2475</v>
+      <c r="B309" s="2">
+        <v>9616</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -9127,8 +9127,8 @@
       <c r="A310" s="1">
         <v>21</v>
       </c>
-      <c r="B310" s="5">
-        <v>3531</v>
+      <c r="B310" s="2">
+        <v>9617</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -9156,8 +9156,8 @@
       <c r="A311" s="1">
         <v>22</v>
       </c>
-      <c r="B311" s="5">
-        <v>3628</v>
+      <c r="B311" s="2">
+        <v>9618</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -9185,8 +9185,8 @@
       <c r="A312" s="1">
         <v>23</v>
       </c>
-      <c r="B312" s="5">
-        <v>3751</v>
+      <c r="B312" s="2">
+        <v>9619</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -9214,8 +9214,8 @@
       <c r="A313" s="1">
         <v>24</v>
       </c>
-      <c r="B313" s="5">
-        <v>4129</v>
+      <c r="B313" s="2">
+        <v>9620</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -9243,8 +9243,8 @@
       <c r="A314" s="1">
         <v>25</v>
       </c>
-      <c r="B314" s="5">
-        <v>4711</v>
+      <c r="B314" s="2">
+        <v>9621</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -9272,8 +9272,8 @@
       <c r="A315" s="1">
         <v>26</v>
       </c>
-      <c r="B315" s="5">
-        <v>4715</v>
+      <c r="B315" s="2">
+        <v>9622</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -9301,8 +9301,8 @@
       <c r="A316" s="1">
         <v>27</v>
       </c>
-      <c r="B316" s="5">
-        <v>6398</v>
+      <c r="B316" s="2">
+        <v>9623</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -9330,8 +9330,8 @@
       <c r="A317" s="1">
         <v>28</v>
       </c>
-      <c r="B317" s="5">
-        <v>6992</v>
+      <c r="B317" s="2">
+        <v>9624</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -9359,8 +9359,8 @@
       <c r="A318" s="1">
         <v>29</v>
       </c>
-      <c r="B318" s="5">
-        <v>6994</v>
+      <c r="B318" s="2">
+        <v>9625</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -9388,8 +9388,8 @@
       <c r="A319" s="1">
         <v>30</v>
       </c>
-      <c r="B319" s="5">
-        <v>7001</v>
+      <c r="B319" s="2">
+        <v>9626</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -9417,8 +9417,8 @@
       <c r="A320" s="1">
         <v>31</v>
       </c>
-      <c r="B320" s="5">
-        <v>7007</v>
+      <c r="B320" s="2">
+        <v>9627</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -9534,7 +9534,7 @@
         <v>35</v>
       </c>
       <c r="B324" s="5">
-        <v>7034</v>
+        <v>9637</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>36</v>
       </c>
       <c r="B325" s="5">
-        <v>7142</v>
+        <v>9636</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>37</v>
       </c>
       <c r="B326" s="5">
-        <v>7263</v>
+        <v>9635</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -9621,7 +9621,7 @@
         <v>38</v>
       </c>
       <c r="B327" s="5">
-        <v>7315</v>
+        <v>9634</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>39</v>
       </c>
       <c r="B328" s="5">
-        <v>7341</v>
+        <v>9633</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>40</v>
       </c>
       <c r="B329" s="5">
-        <v>7349</v>
+        <v>9632</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>41</v>
       </c>
       <c r="B330" s="5">
-        <v>7378</v>
+        <v>9631</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>42</v>
       </c>
       <c r="B331" s="5">
-        <v>7515</v>
+        <v>9630</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>43</v>
       </c>
       <c r="B332" s="5">
-        <v>8631</v>
+        <v>9629</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>44</v>
       </c>
       <c r="B333" s="5">
-        <v>8657</v>
+        <v>9628</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>129</v>
       </c>
       <c r="B339" s="2">
-        <v>2644</v>
+        <v>2870</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>130</v>
       </c>
       <c r="B340" s="2">
-        <v>2645</v>
+        <v>2858</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>131</v>
       </c>
       <c r="B341" s="2">
-        <v>2646</v>
+        <v>2859</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -9923,7 +9923,7 @@
         <v>132</v>
       </c>
       <c r="B342" s="2">
-        <v>2647</v>
+        <v>2860</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -9934,7 +9934,7 @@
         <v>133</v>
       </c>
       <c r="B343" s="2">
-        <v>2648</v>
+        <v>2861</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>134</v>
       </c>
       <c r="B344" s="2">
-        <v>2649</v>
+        <v>2862</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>135</v>
       </c>
       <c r="B345" s="2">
-        <v>2650</v>
+        <v>2863</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -9967,7 +9967,7 @@
         <v>136</v>
       </c>
       <c r="B346" s="2">
-        <v>2651</v>
+        <v>2864</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>137</v>
       </c>
       <c r="B347" s="2">
-        <v>2652</v>
+        <v>2865</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>138</v>
       </c>
       <c r="B348" s="2">
-        <v>2653</v>
+        <v>2866</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>139</v>
       </c>
       <c r="B349" s="2">
-        <v>2654</v>
+        <v>2867</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>140</v>
       </c>
       <c r="B350" s="2">
-        <v>2655</v>
+        <v>2173</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>141</v>
       </c>
       <c r="B351" s="2">
-        <v>2298</v>
+        <v>2172</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>142</v>
       </c>
       <c r="B352" s="2">
-        <v>2299</v>
+        <v>2869</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>143</v>
       </c>
       <c r="B353" s="2">
-        <v>2656</v>
+        <v>2868</v>
       </c>
       <c r="C353">
         <v>0</v>

--- a/06_납품현황/2018/01_광교에이스/02_SerialNumber/USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2018/01_광교에이스/02_SerialNumber/USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2018\01_광교에이스\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2018\01_광교에이스\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -409,40 +409,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="1"/>
-    <col min="7" max="8" width="8.796875" style="4"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.78515625" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.78515625" style="1"/>
+    <col min="7" max="8" width="8.78515625" style="4"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
       <c r="BQ3" s="3"/>
       <c r="BS3" s="2"/>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -504,7 +504,7 @@
         <v>129</v>
       </c>
       <c r="E4" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -560,7 +560,7 @@
       <c r="BQ4" s="3"/>
       <c r="BS4" s="2"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -574,7 +574,7 @@
         <v>129</v>
       </c>
       <c r="E5" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -630,7 +630,7 @@
       <c r="BQ5" s="3"/>
       <c r="BS5" s="2"/>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
         <v>129</v>
       </c>
       <c r="E6" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -700,7 +700,7 @@
       <c r="BQ6" s="3"/>
       <c r="BS6" s="2"/>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -714,7 +714,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -723,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -770,7 +770,7 @@
       <c r="BQ7" s="3"/>
       <c r="BS7" s="2"/>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -784,7 +784,7 @@
         <v>130</v>
       </c>
       <c r="E8" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -840,7 +840,7 @@
       <c r="BQ8" s="3"/>
       <c r="BS8" s="2"/>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -854,7 +854,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -863,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -910,12 +910,12 @@
       <c r="BQ9" s="3"/>
       <c r="BS9" s="2"/>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>6377</v>
+        <v>9647</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>131</v>
       </c>
       <c r="E10" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -980,7 +980,7 @@
       <c r="BQ10" s="3"/>
       <c r="BS10" s="2"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -994,7 +994,7 @@
         <v>131</v>
       </c>
       <c r="E11" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
@@ -1003,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1050,7 +1050,7 @@
       <c r="BQ11" s="3"/>
       <c r="BS11" s="2"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>131</v>
       </c>
       <c r="E12" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -1120,7 +1120,7 @@
       <c r="BQ12" s="3"/>
       <c r="BS12" s="2"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>132</v>
       </c>
       <c r="E13" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1190,7 +1190,7 @@
       <c r="BQ13" s="3"/>
       <c r="BS13" s="2"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>132</v>
       </c>
       <c r="E14" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -1260,7 +1260,7 @@
       <c r="BQ14" s="3"/>
       <c r="BS14" s="2"/>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>133</v>
       </c>
       <c r="E15" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -1330,7 +1330,7 @@
       <c r="BQ15" s="3"/>
       <c r="BS15" s="2"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>133</v>
       </c>
       <c r="E16" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -1353,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1399,7 +1399,7 @@
       <c r="BQ16" s="3"/>
       <c r="BS16" s="2"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>133</v>
       </c>
       <c r="E17" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
@@ -1422,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -1467,7 +1467,7 @@
       <c r="BQ17" s="3"/>
       <c r="BS17" s="2"/>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>133</v>
       </c>
       <c r="E18" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -1537,7 +1537,7 @@
       <c r="BQ18" s="3"/>
       <c r="BS18" s="2"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>133</v>
       </c>
       <c r="E19" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
@@ -1560,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -1607,7 +1607,7 @@
       <c r="BQ19" s="3"/>
       <c r="BS19" s="2"/>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>134</v>
       </c>
       <c r="E20" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -1677,7 +1677,7 @@
       <c r="BQ20" s="3"/>
       <c r="BS20" s="2"/>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>134</v>
       </c>
       <c r="E21" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F21" s="1">
         <v>100</v>
@@ -1700,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -1747,7 +1747,7 @@
       <c r="BQ21" s="3"/>
       <c r="BS21" s="2"/>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>134</v>
       </c>
       <c r="E22" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -1770,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
@@ -1816,7 +1816,7 @@
       <c r="BQ22" s="3"/>
       <c r="BS22" s="2"/>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>135</v>
       </c>
       <c r="E23" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F23" s="1">
         <v>100</v>
@@ -1839,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" s="3">
         <v>2</v>
@@ -1883,7 +1883,7 @@
       <c r="BQ23" s="3"/>
       <c r="BS23" s="2"/>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>135</v>
       </c>
       <c r="E24" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F24" s="1">
         <v>100</v>
@@ -1906,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" s="3">
         <v>2</v>
@@ -1949,7 +1949,7 @@
       <c r="BP24" s="4"/>
       <c r="BQ24" s="3"/>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>135</v>
       </c>
       <c r="E25" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
@@ -1972,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" s="3">
         <v>2</v>
@@ -2015,12 +2015,12 @@
       <c r="BP25" s="4"/>
       <c r="BQ25" s="3"/>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>6393</v>
+        <v>9644</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>136</v>
       </c>
       <c r="E26" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F26" s="1">
         <v>100</v>
@@ -2038,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26" s="3">
         <v>2</v>
@@ -2079,7 +2079,7 @@
       <c r="BP26" s="4"/>
       <c r="BQ26" s="3"/>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>136</v>
       </c>
       <c r="E27" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
@@ -2102,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" s="3">
         <v>2</v>
@@ -2143,7 +2143,7 @@
       <c r="BP27" s="4"/>
       <c r="BQ27" s="3"/>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>136</v>
       </c>
       <c r="E28" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" s="3">
         <v>2</v>
@@ -2207,7 +2207,7 @@
       <c r="BP28" s="4"/>
       <c r="BQ28" s="3"/>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>137</v>
       </c>
       <c r="E29" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F29" s="1">
         <v>100</v>
@@ -2230,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <v>2</v>
@@ -2271,12 +2271,12 @@
       <c r="BP29" s="4"/>
       <c r="BQ29" s="3"/>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>6397</v>
+        <v>9645</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>137</v>
       </c>
       <c r="E30" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
@@ -2294,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30" s="3">
         <v>2</v>
@@ -2335,12 +2335,12 @@
       <c r="BP30" s="4"/>
       <c r="BQ30" s="3"/>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>6398</v>
+        <v>9646</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>137</v>
       </c>
       <c r="E31" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F31" s="1">
         <v>100</v>
@@ -2358,7 +2358,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3">
         <v>2</v>
@@ -2399,7 +2399,7 @@
       <c r="BP31" s="4"/>
       <c r="BQ31" s="3"/>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>138</v>
       </c>
       <c r="E32" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F32" s="1">
         <v>100</v>
@@ -2422,7 +2422,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" s="3">
         <v>2</v>
@@ -2463,7 +2463,7 @@
       <c r="BP32" s="4"/>
       <c r="BQ32" s="3"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>138</v>
       </c>
       <c r="E33" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F33" s="1">
         <v>100</v>
@@ -2486,7 +2486,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" s="3">
         <v>2</v>
@@ -2527,7 +2527,7 @@
       <c r="BP33" s="4"/>
       <c r="BQ33" s="3"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>138</v>
       </c>
       <c r="E34" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
@@ -2550,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" s="3">
         <v>2</v>
@@ -2591,7 +2591,7 @@
       <c r="BP34" s="4"/>
       <c r="BQ34" s="3"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>139</v>
       </c>
       <c r="E35" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
@@ -2614,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" s="3">
         <v>2</v>
@@ -2655,7 +2655,7 @@
       <c r="BP35" s="4"/>
       <c r="BQ35" s="3"/>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>139</v>
       </c>
       <c r="E36" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F36" s="1">
         <v>100</v>
@@ -2678,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36" s="3">
         <v>2</v>
@@ -2719,7 +2719,7 @@
       <c r="BP36" s="4"/>
       <c r="BQ36" s="3"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>139</v>
       </c>
       <c r="E37" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F37" s="1">
         <v>100</v>
@@ -2742,7 +2742,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37" s="3">
         <v>2</v>
@@ -2783,7 +2783,7 @@
       <c r="BP37" s="4"/>
       <c r="BQ37" s="3"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>139</v>
       </c>
       <c r="E38" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F38" s="1">
         <v>100</v>
@@ -2806,7 +2806,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" s="3">
         <v>2</v>
@@ -2847,7 +2847,7 @@
       <c r="BP38" s="4"/>
       <c r="BQ38" s="3"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>140</v>
       </c>
       <c r="E39" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F39" s="1">
         <v>100</v>
@@ -2870,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39" s="3">
         <v>2</v>
@@ -2911,7 +2911,7 @@
       <c r="BP39" s="4"/>
       <c r="BQ39" s="3"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>140</v>
       </c>
       <c r="E40" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F40" s="1">
         <v>100</v>
@@ -2934,7 +2934,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I40" s="3">
         <v>2</v>
@@ -2975,7 +2975,7 @@
       <c r="BP40" s="4"/>
       <c r="BQ40" s="3"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>141</v>
       </c>
       <c r="E41" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F41" s="1">
         <v>100</v>
@@ -2998,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I41" s="3">
         <v>2</v>
@@ -3039,7 +3039,7 @@
       <c r="BP41" s="4"/>
       <c r="BQ41" s="3"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>141</v>
       </c>
       <c r="E42" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F42" s="1">
         <v>100</v>
@@ -3062,7 +3062,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42" s="3">
         <v>2</v>
@@ -3103,7 +3103,7 @@
       <c r="BP42" s="4"/>
       <c r="BQ42" s="3"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>141</v>
       </c>
       <c r="E43" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F43" s="1">
         <v>100</v>
@@ -3126,7 +3126,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43" s="3">
         <v>2</v>
@@ -3167,7 +3167,7 @@
       <c r="BP43" s="4"/>
       <c r="BQ43" s="3"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>142</v>
       </c>
       <c r="E44" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F44" s="1">
         <v>100</v>
@@ -3190,7 +3190,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44" s="3">
         <v>99</v>
@@ -3231,7 +3231,7 @@
       <c r="BP44" s="4"/>
       <c r="BQ44" s="3"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>142</v>
       </c>
       <c r="E45" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F45" s="1">
         <v>100</v>
@@ -3254,7 +3254,7 @@
         <v>10</v>
       </c>
       <c r="H45" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I45" s="3">
         <v>99</v>
@@ -3295,7 +3295,7 @@
       <c r="BP45" s="4"/>
       <c r="BQ45" s="3"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="3"/>
       <c r="I46" s="3"/>
       <c r="M46" s="1"/>
@@ -3320,7 +3320,7 @@
       <c r="BP46" s="4"/>
       <c r="BQ46" s="3"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="BP47" s="4"/>
       <c r="BQ47" s="3"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>129</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="BP48" s="4"/>
       <c r="BQ48" s="3"/>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>130</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="BP49" s="4"/>
       <c r="BQ49" s="3"/>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>131</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="BP50" s="4"/>
       <c r="BQ50" s="3"/>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>132</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="BP51" s="4"/>
       <c r="BQ51" s="3"/>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>133</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="3"/>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>134</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="3"/>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>135</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="3"/>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>136</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="3"/>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>137</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>138</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>139</v>
       </c>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>140</v>
       </c>
@@ -3589,19 +3589,19 @@
       </c>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>141</v>
       </c>
       <c r="B60" s="2">
-        <v>2596</v>
+        <v>505</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>142</v>
       </c>
@@ -3613,27 +3613,27 @@
       </c>
       <c r="I61" s="3"/>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>129</v>
       </c>
       <c r="E67" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F67" s="1">
         <v>100</v>
@@ -3656,13 +3656,13 @@
         <v>10</v>
       </c>
       <c r="H67" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>129</v>
       </c>
       <c r="E68" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F68" s="1">
         <v>100</v>
@@ -3685,13 +3685,13 @@
         <v>10</v>
       </c>
       <c r="H68" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>129</v>
       </c>
       <c r="E69" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F69" s="1">
         <v>100</v>
@@ -3714,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="H69" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>4</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>130</v>
       </c>
       <c r="E70" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F70" s="1">
         <v>100</v>
@@ -3743,13 +3743,13 @@
         <v>10</v>
       </c>
       <c r="H70" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>5</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>130</v>
       </c>
       <c r="E71" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F71" s="1">
         <v>100</v>
@@ -3772,13 +3772,13 @@
         <v>10</v>
       </c>
       <c r="H71" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>6</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>130</v>
       </c>
       <c r="E72" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F72" s="1">
         <v>100</v>
@@ -3801,13 +3801,13 @@
         <v>10</v>
       </c>
       <c r="H72" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>7</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>131</v>
       </c>
       <c r="E73" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F73" s="1">
         <v>100</v>
@@ -3830,13 +3830,13 @@
         <v>10</v>
       </c>
       <c r="H73" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>8</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>131</v>
       </c>
       <c r="E74" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F74" s="1">
         <v>100</v>
@@ -3859,13 +3859,13 @@
         <v>10</v>
       </c>
       <c r="H74" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>9</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>131</v>
       </c>
       <c r="E75" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F75" s="1">
         <v>100</v>
@@ -3888,13 +3888,13 @@
         <v>10</v>
       </c>
       <c r="H75" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>10</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>132</v>
       </c>
       <c r="E76" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F76" s="1">
         <v>100</v>
@@ -3917,13 +3917,13 @@
         <v>10</v>
       </c>
       <c r="H76" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>11</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>132</v>
       </c>
       <c r="E77" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F77" s="1">
         <v>100</v>
@@ -3946,18 +3946,18 @@
         <v>10</v>
       </c>
       <c r="H77" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>12</v>
       </c>
       <c r="B78" s="2">
-        <v>6421</v>
+        <v>9650</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>132</v>
       </c>
       <c r="E78" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F78" s="1">
         <v>100</v>
@@ -3975,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="H78" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>13</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>133</v>
       </c>
       <c r="E79" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F79" s="1">
         <v>100</v>
@@ -4004,13 +4004,13 @@
         <v>10</v>
       </c>
       <c r="H79" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>14</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>133</v>
       </c>
       <c r="E80" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F80" s="1">
         <v>100</v>
@@ -4033,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="H80" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>15</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>133</v>
       </c>
       <c r="E81" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F81" s="1">
         <v>100</v>
@@ -4062,13 +4062,13 @@
         <v>10</v>
       </c>
       <c r="H81" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>16</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>134</v>
       </c>
       <c r="E82" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F82" s="1">
         <v>100</v>
@@ -4091,13 +4091,13 @@
         <v>10</v>
       </c>
       <c r="H82" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>17</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>134</v>
       </c>
       <c r="E83" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F83" s="1">
         <v>100</v>
@@ -4120,18 +4120,18 @@
         <v>10</v>
       </c>
       <c r="H83" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>18</v>
       </c>
       <c r="B84" s="2">
-        <v>6427</v>
+        <v>9649</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="E84" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F84" s="1">
         <v>100</v>
@@ -4149,18 +4149,18 @@
         <v>10</v>
       </c>
       <c r="H84" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>19</v>
       </c>
       <c r="B85" s="2">
-        <v>6428</v>
+        <v>9648</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>135</v>
       </c>
       <c r="E85" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F85" s="1">
         <v>100</v>
@@ -4178,13 +4178,13 @@
         <v>10</v>
       </c>
       <c r="H85" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>20</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>135</v>
       </c>
       <c r="E86" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F86" s="1">
         <v>100</v>
@@ -4207,13 +4207,13 @@
         <v>10</v>
       </c>
       <c r="H86" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>21</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>136</v>
       </c>
       <c r="E87" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F87" s="1">
         <v>100</v>
@@ -4236,13 +4236,13 @@
         <v>10</v>
       </c>
       <c r="H87" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>22</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>136</v>
       </c>
       <c r="E88" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F88" s="1">
         <v>100</v>
@@ -4265,13 +4265,13 @@
         <v>10</v>
       </c>
       <c r="H88" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>23</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>137</v>
       </c>
       <c r="E89" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F89" s="1">
         <v>100</v>
@@ -4294,13 +4294,13 @@
         <v>10</v>
       </c>
       <c r="H89" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>24</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>137</v>
       </c>
       <c r="E90" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F90" s="1">
         <v>100</v>
@@ -4323,13 +4323,13 @@
         <v>10</v>
       </c>
       <c r="H90" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>25</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>137</v>
       </c>
       <c r="E91" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F91" s="1">
         <v>100</v>
@@ -4352,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="H91" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>26</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>138</v>
       </c>
       <c r="E92" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F92" s="1">
         <v>100</v>
@@ -4381,13 +4381,13 @@
         <v>10</v>
       </c>
       <c r="H92" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>27</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>138</v>
       </c>
       <c r="E93" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F93" s="1">
         <v>100</v>
@@ -4410,13 +4410,13 @@
         <v>10</v>
       </c>
       <c r="H93" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>28</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>138</v>
       </c>
       <c r="E94" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F94" s="1">
         <v>100</v>
@@ -4439,13 +4439,13 @@
         <v>10</v>
       </c>
       <c r="H94" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>29</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>139</v>
       </c>
       <c r="E95" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F95" s="1">
         <v>100</v>
@@ -4468,13 +4468,13 @@
         <v>10</v>
       </c>
       <c r="H95" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>30</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>139</v>
       </c>
       <c r="E96" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F96" s="1">
         <v>100</v>
@@ -4497,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="H96" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>31</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>139</v>
       </c>
       <c r="E97" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F97" s="1">
         <v>100</v>
@@ -4526,13 +4526,13 @@
         <v>10</v>
       </c>
       <c r="H97" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>32</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>140</v>
       </c>
       <c r="E98" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F98" s="1">
         <v>100</v>
@@ -4555,13 +4555,13 @@
         <v>10</v>
       </c>
       <c r="H98" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>33</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>140</v>
       </c>
       <c r="E99" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F99" s="1">
         <v>100</v>
@@ -4584,13 +4584,13 @@
         <v>10</v>
       </c>
       <c r="H99" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>34</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>140</v>
       </c>
       <c r="E100" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F100" s="1">
         <v>100</v>
@@ -4613,13 +4613,13 @@
         <v>10</v>
       </c>
       <c r="H100" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>35</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>141</v>
       </c>
       <c r="E101" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F101" s="1">
         <v>100</v>
@@ -4642,13 +4642,13 @@
         <v>10</v>
       </c>
       <c r="H101" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>36</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>142</v>
       </c>
       <c r="E102" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F102" s="1">
         <v>100</v>
@@ -4671,18 +4671,18 @@
         <v>10</v>
       </c>
       <c r="H102" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>129</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>130</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>131</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>132</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>133</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>134</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>135</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>136</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>137</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>138</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>139</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>140</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>141</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>142</v>
       </c>
@@ -4836,22 +4836,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>129</v>
       </c>
       <c r="E123" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F123" s="1">
         <v>100</v>
@@ -4874,13 +4874,13 @@
         <v>10</v>
       </c>
       <c r="H123" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>129</v>
       </c>
       <c r="E124" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F124" s="1">
         <v>100</v>
@@ -4903,13 +4903,13 @@
         <v>10</v>
       </c>
       <c r="H124" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>3</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>129</v>
       </c>
       <c r="E125" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F125" s="1">
         <v>100</v>
@@ -4932,13 +4932,13 @@
         <v>10</v>
       </c>
       <c r="H125" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I125">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>4</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>129</v>
       </c>
       <c r="E126" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F126" s="1">
         <v>100</v>
@@ -4961,13 +4961,13 @@
         <v>10</v>
       </c>
       <c r="H126" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I126">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>5</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>130</v>
       </c>
       <c r="E127" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F127" s="1">
         <v>100</v>
@@ -4990,13 +4990,13 @@
         <v>10</v>
       </c>
       <c r="H127" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I127">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>6</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>130</v>
       </c>
       <c r="E128" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F128" s="1">
         <v>100</v>
@@ -5019,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="H128" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I128">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>7</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>131</v>
       </c>
       <c r="E129" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F129" s="1">
         <v>100</v>
@@ -5048,13 +5048,13 @@
         <v>10</v>
       </c>
       <c r="H129" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I129">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>8</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>131</v>
       </c>
       <c r="E130" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F130" s="1">
         <v>100</v>
@@ -5077,13 +5077,13 @@
         <v>10</v>
       </c>
       <c r="H130" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>9</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>131</v>
       </c>
       <c r="E131" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F131" s="1">
         <v>100</v>
@@ -5106,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="H131" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>10</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>132</v>
       </c>
       <c r="E132" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F132" s="1">
         <v>100</v>
@@ -5135,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="H132" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I132">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>11</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>132</v>
       </c>
       <c r="E133" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F133" s="1">
         <v>100</v>
@@ -5164,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="H133" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>12</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>133</v>
       </c>
       <c r="E134" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F134" s="1">
         <v>100</v>
@@ -5193,13 +5193,13 @@
         <v>10</v>
       </c>
       <c r="H134" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>13</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>133</v>
       </c>
       <c r="E135" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F135" s="1">
         <v>100</v>
@@ -5222,13 +5222,13 @@
         <v>10</v>
       </c>
       <c r="H135" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I135">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>14</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>133</v>
       </c>
       <c r="E136" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F136" s="1">
         <v>100</v>
@@ -5251,13 +5251,13 @@
         <v>10</v>
       </c>
       <c r="H136" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>15</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>133</v>
       </c>
       <c r="E137" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F137" s="1">
         <v>100</v>
@@ -5280,13 +5280,13 @@
         <v>10</v>
       </c>
       <c r="H137" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>16</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>133</v>
       </c>
       <c r="E138" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F138" s="1">
         <v>100</v>
@@ -5309,13 +5309,13 @@
         <v>10</v>
       </c>
       <c r="H138" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>17</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>134</v>
       </c>
       <c r="E139" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F139" s="1">
         <v>100</v>
@@ -5338,13 +5338,13 @@
         <v>10</v>
       </c>
       <c r="H139" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>18</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>134</v>
       </c>
       <c r="E140" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F140" s="1">
         <v>100</v>
@@ -5367,13 +5367,13 @@
         <v>10</v>
       </c>
       <c r="H140" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>19</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>134</v>
       </c>
       <c r="E141" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F141" s="1">
         <v>100</v>
@@ -5396,13 +5396,13 @@
         <v>10</v>
       </c>
       <c r="H141" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>20</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>135</v>
       </c>
       <c r="E142" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F142" s="1">
         <v>100</v>
@@ -5425,13 +5425,13 @@
         <v>10</v>
       </c>
       <c r="H142" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I142">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>21</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>135</v>
       </c>
       <c r="E143" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F143" s="1">
         <v>100</v>
@@ -5454,13 +5454,13 @@
         <v>10</v>
       </c>
       <c r="H143" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I143">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>22</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>136</v>
       </c>
       <c r="E144" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F144" s="1">
         <v>100</v>
@@ -5483,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="H144" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I144">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>23</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>137</v>
       </c>
       <c r="E145" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F145" s="1">
         <v>100</v>
@@ -5512,13 +5512,13 @@
         <v>10</v>
       </c>
       <c r="H145" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I145">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>24</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>137</v>
       </c>
       <c r="E146" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F146" s="1">
         <v>100</v>
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="H146" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I146">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>25</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>137</v>
       </c>
       <c r="E147" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F147" s="1">
         <v>100</v>
@@ -5570,13 +5570,13 @@
         <v>10</v>
       </c>
       <c r="H147" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I147">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>26</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>138</v>
       </c>
       <c r="E148" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F148" s="1">
         <v>100</v>
@@ -5599,13 +5599,13 @@
         <v>10</v>
       </c>
       <c r="H148" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I148">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>27</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>138</v>
       </c>
       <c r="E149" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F149" s="1">
         <v>100</v>
@@ -5628,13 +5628,13 @@
         <v>10</v>
       </c>
       <c r="H149" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I149">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>28</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>138</v>
       </c>
       <c r="E150" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F150" s="1">
         <v>100</v>
@@ -5657,13 +5657,13 @@
         <v>10</v>
       </c>
       <c r="H150" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I150">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>29</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>139</v>
       </c>
       <c r="E151" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F151" s="1">
         <v>100</v>
@@ -5686,13 +5686,13 @@
         <v>10</v>
       </c>
       <c r="H151" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>30</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>139</v>
       </c>
       <c r="E152" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F152" s="1">
         <v>100</v>
@@ -5715,13 +5715,13 @@
         <v>10</v>
       </c>
       <c r="H152" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I152">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>31</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>139</v>
       </c>
       <c r="E153" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F153" s="1">
         <v>100</v>
@@ -5744,13 +5744,13 @@
         <v>10</v>
       </c>
       <c r="H153" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I153">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>32</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>140</v>
       </c>
       <c r="E154" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F154" s="1">
         <v>100</v>
@@ -5773,13 +5773,13 @@
         <v>10</v>
       </c>
       <c r="H154" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I154">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>33</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>140</v>
       </c>
       <c r="E155" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F155" s="1">
         <v>100</v>
@@ -5802,13 +5802,13 @@
         <v>10</v>
       </c>
       <c r="H155" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>34</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>140</v>
       </c>
       <c r="E156" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F156" s="1">
         <v>100</v>
@@ -5831,13 +5831,13 @@
         <v>10</v>
       </c>
       <c r="H156" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I156">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>35</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>141</v>
       </c>
       <c r="E157" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F157" s="1">
         <v>100</v>
@@ -5860,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="H157" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I157">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>36</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>141</v>
       </c>
       <c r="E158" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F158" s="1">
         <v>100</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="H158" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I158">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>37</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>141</v>
       </c>
       <c r="E159" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F159" s="1">
         <v>100</v>
@@ -5918,13 +5918,13 @@
         <v>10</v>
       </c>
       <c r="H159" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I159">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>38</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>142</v>
       </c>
       <c r="E160" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F160" s="1">
         <v>100</v>
@@ -5947,13 +5947,13 @@
         <v>10</v>
       </c>
       <c r="H160" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I160">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>39</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>142</v>
       </c>
       <c r="E161" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F161" s="1">
         <v>100</v>
@@ -5976,13 +5976,13 @@
         <v>10</v>
       </c>
       <c r="H161" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I161">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>40</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>143</v>
       </c>
       <c r="E162" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F162" s="1">
         <v>100</v>
@@ -6005,13 +6005,13 @@
         <v>10</v>
       </c>
       <c r="H162" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I162">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>41</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>143</v>
       </c>
       <c r="E163" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F163" s="1">
         <v>100</v>
@@ -6034,13 +6034,13 @@
         <v>10</v>
       </c>
       <c r="H163" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I163">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>42</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>144</v>
       </c>
       <c r="E164" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F164" s="1">
         <v>100</v>
@@ -6063,13 +6063,13 @@
         <v>10</v>
       </c>
       <c r="H164" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I164">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>43</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>144</v>
       </c>
       <c r="E165" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F165" s="1">
         <v>100</v>
@@ -6092,13 +6092,13 @@
         <v>10</v>
       </c>
       <c r="H165" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I165">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>44</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>144</v>
       </c>
       <c r="E166" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F166" s="1">
         <v>100</v>
@@ -6121,18 +6121,18 @@
         <v>10</v>
       </c>
       <c r="H166" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I166">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>45</v>
       </c>
       <c r="B167" s="2">
-        <v>6488</v>
+        <v>9643</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>145</v>
       </c>
       <c r="E167" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F167" s="1">
         <v>100</v>
@@ -6150,13 +6150,13 @@
         <v>10</v>
       </c>
       <c r="H167" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I167">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>46</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>145</v>
       </c>
       <c r="E168" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F168" s="1">
         <v>100</v>
@@ -6179,13 +6179,13 @@
         <v>10</v>
       </c>
       <c r="H168" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I168">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>47</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>145</v>
       </c>
       <c r="E169" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F169" s="1">
         <v>100</v>
@@ -6208,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="H169" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I169">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>48</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>146</v>
       </c>
       <c r="E170" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F170" s="1">
         <v>100</v>
@@ -6237,13 +6237,13 @@
         <v>10</v>
       </c>
       <c r="H170" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I170">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>49</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>146</v>
       </c>
       <c r="E171" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F171" s="1">
         <v>100</v>
@@ -6266,13 +6266,13 @@
         <v>10</v>
       </c>
       <c r="H171" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I171">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>50</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>146</v>
       </c>
       <c r="E172" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F172" s="1">
         <v>100</v>
@@ -6295,13 +6295,13 @@
         <v>10</v>
       </c>
       <c r="H172" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I172">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>51</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>147</v>
       </c>
       <c r="E173" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F173" s="1">
         <v>100</v>
@@ -6324,13 +6324,13 @@
         <v>10</v>
       </c>
       <c r="H173" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I173">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>52</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>147</v>
       </c>
       <c r="E174" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F174" s="1">
         <v>100</v>
@@ -6353,13 +6353,13 @@
         <v>10</v>
       </c>
       <c r="H174" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I174">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>53</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>147</v>
       </c>
       <c r="E175" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F175" s="1">
         <v>100</v>
@@ -6382,13 +6382,13 @@
         <v>10</v>
       </c>
       <c r="H175" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I175">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>54</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>148</v>
       </c>
       <c r="E176" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F176" s="1">
         <v>100</v>
@@ -6411,13 +6411,13 @@
         <v>10</v>
       </c>
       <c r="H176" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I176">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>55</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>148</v>
       </c>
       <c r="E177" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F177" s="1">
         <v>100</v>
@@ -6440,13 +6440,13 @@
         <v>10</v>
       </c>
       <c r="H177" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I177">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>56</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>148</v>
       </c>
       <c r="E178" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F178" s="1">
         <v>100</v>
@@ -6469,13 +6469,13 @@
         <v>10</v>
       </c>
       <c r="H178" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I178">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>57</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>149</v>
       </c>
       <c r="E179" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F179" s="1">
         <v>100</v>
@@ -6498,13 +6498,13 @@
         <v>10</v>
       </c>
       <c r="H179" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I179">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>58</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>149</v>
       </c>
       <c r="E180" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F180" s="1">
         <v>100</v>
@@ -6527,13 +6527,13 @@
         <v>10</v>
       </c>
       <c r="H180" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I180">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>59</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>149</v>
       </c>
       <c r="E181" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F181" s="1">
         <v>100</v>
@@ -6556,13 +6556,13 @@
         <v>10</v>
       </c>
       <c r="H181" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I181">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>60</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>150</v>
       </c>
       <c r="E182" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F182" s="1">
         <v>100</v>
@@ -6585,13 +6585,13 @@
         <v>10</v>
       </c>
       <c r="H182" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I182">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>61</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>150</v>
       </c>
       <c r="E183" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F183" s="1">
         <v>100</v>
@@ -6614,13 +6614,13 @@
         <v>10</v>
       </c>
       <c r="H183" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I183">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>62</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>150</v>
       </c>
       <c r="E184" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F184" s="1">
         <v>100</v>
@@ -6643,13 +6643,13 @@
         <v>10</v>
       </c>
       <c r="H184" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I184">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>63</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>151</v>
       </c>
       <c r="E185" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F185" s="1">
         <v>100</v>
@@ -6672,13 +6672,13 @@
         <v>10</v>
       </c>
       <c r="H185" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I185">
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>64</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>152</v>
       </c>
       <c r="E186" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F186" s="1">
         <v>100</v>
@@ -6701,18 +6701,18 @@
         <v>10</v>
       </c>
       <c r="H186" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I186">
         <v>99</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>129</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>130</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>131</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>132</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>133</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>134</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>135</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>136</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>137</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>138</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>139</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>140</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>141</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>142</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>143</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>144</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>145</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>146</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>147</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>148</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>149</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>150</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>151</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>152</v>
       </c>
@@ -6976,22 +6976,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>1</v>
       </c>
@@ -7005,22 +7005,22 @@
         <v>129</v>
       </c>
       <c r="E217" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F217" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G217" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H217" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I217">
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -7034,22 +7034,22 @@
         <v>129</v>
       </c>
       <c r="E218" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F218" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G218" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H218" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I218">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>3</v>
       </c>
@@ -7063,22 +7063,22 @@
         <v>129</v>
       </c>
       <c r="E219" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F219" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G219" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H219" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I219">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>4</v>
       </c>
@@ -7092,22 +7092,22 @@
         <v>129</v>
       </c>
       <c r="E220" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F220" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G220" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H220" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I220">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>5</v>
       </c>
@@ -7121,22 +7121,22 @@
         <v>130</v>
       </c>
       <c r="E221" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F221" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G221" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H221" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I221">
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>6</v>
       </c>
@@ -7150,22 +7150,22 @@
         <v>130</v>
       </c>
       <c r="E222" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F222" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G222" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H222" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I222">
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>7</v>
       </c>
@@ -7179,22 +7179,22 @@
         <v>130</v>
       </c>
       <c r="E223" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F223" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G223" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H223" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I223">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>8</v>
       </c>
@@ -7208,22 +7208,22 @@
         <v>130</v>
       </c>
       <c r="E224" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F224" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G224" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H224" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I224">
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>9</v>
       </c>
@@ -7237,22 +7237,22 @@
         <v>130</v>
       </c>
       <c r="E225" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F225" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G225" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H225" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I225">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>10</v>
       </c>
@@ -7266,22 +7266,22 @@
         <v>131</v>
       </c>
       <c r="E226" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F226" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G226" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H226" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I226">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>11</v>
       </c>
@@ -7295,22 +7295,22 @@
         <v>131</v>
       </c>
       <c r="E227" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F227" s="1">
         <v>100</v>
       </c>
       <c r="G227" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H227" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I227">
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>12</v>
       </c>
@@ -7324,22 +7324,22 @@
         <v>131</v>
       </c>
       <c r="E228" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F228" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G228" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H228" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I228">
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>13</v>
       </c>
@@ -7353,22 +7353,22 @@
         <v>132</v>
       </c>
       <c r="E229" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F229" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G229" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H229" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I229">
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>14</v>
       </c>
@@ -7382,22 +7382,22 @@
         <v>132</v>
       </c>
       <c r="E230" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F230" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G230" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H230" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I230">
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>15</v>
       </c>
@@ -7411,22 +7411,22 @@
         <v>133</v>
       </c>
       <c r="E231" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F231" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G231" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H231" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I231">
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>16</v>
       </c>
@@ -7440,22 +7440,22 @@
         <v>134</v>
       </c>
       <c r="E232" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F232" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G232" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H232" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I232">
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>17</v>
       </c>
@@ -7469,22 +7469,22 @@
         <v>134</v>
       </c>
       <c r="E233" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F233" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G233" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H233" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I233">
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>18</v>
       </c>
@@ -7498,22 +7498,22 @@
         <v>134</v>
       </c>
       <c r="E234" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F234" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G234" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H234" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I234">
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>19</v>
       </c>
@@ -7527,22 +7527,22 @@
         <v>135</v>
       </c>
       <c r="E235" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F235" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G235" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H235" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I235">
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>20</v>
       </c>
@@ -7556,22 +7556,22 @@
         <v>135</v>
       </c>
       <c r="E236" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F236" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G236" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H236" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I236">
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>21</v>
       </c>
@@ -7585,22 +7585,22 @@
         <v>135</v>
       </c>
       <c r="E237" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F237" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G237" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H237" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I237">
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>22</v>
       </c>
@@ -7614,22 +7614,22 @@
         <v>136</v>
       </c>
       <c r="E238" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F238" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G238" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H238" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I238">
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>23</v>
       </c>
@@ -7643,27 +7643,27 @@
         <v>136</v>
       </c>
       <c r="E239" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F239" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G239" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H239" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I239">
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>24</v>
       </c>
       <c r="B240" s="2">
-        <v>7090</v>
+        <v>9642</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -7672,22 +7672,22 @@
         <v>136</v>
       </c>
       <c r="E240" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F240" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G240" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H240" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I240">
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>25</v>
       </c>
@@ -7701,22 +7701,22 @@
         <v>137</v>
       </c>
       <c r="E241" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F241" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G241" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H241" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I241">
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>26</v>
       </c>
@@ -7730,22 +7730,22 @@
         <v>137</v>
       </c>
       <c r="E242" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F242" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G242" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H242" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I242">
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>27</v>
       </c>
@@ -7759,22 +7759,22 @@
         <v>137</v>
       </c>
       <c r="E243" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F243" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G243" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H243" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I243">
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>28</v>
       </c>
@@ -7788,22 +7788,22 @@
         <v>138</v>
       </c>
       <c r="E244" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F244" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G244" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H244" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I244">
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>29</v>
       </c>
@@ -7817,22 +7817,22 @@
         <v>138</v>
       </c>
       <c r="E245" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F245" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G245" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H245" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I245">
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>30</v>
       </c>
@@ -7846,27 +7846,27 @@
         <v>139</v>
       </c>
       <c r="E246" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F246" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G246" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H246" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I246">
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>31</v>
       </c>
       <c r="B247" s="2">
-        <v>7097</v>
+        <v>7722</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -7875,22 +7875,22 @@
         <v>139</v>
       </c>
       <c r="E247" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F247" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G247" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H247" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I247">
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>32</v>
       </c>
@@ -7904,22 +7904,22 @@
         <v>140</v>
       </c>
       <c r="E248" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F248" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G248" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H248" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I248">
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>33</v>
       </c>
@@ -7933,22 +7933,22 @@
         <v>140</v>
       </c>
       <c r="E249" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F249" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G249" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H249" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I249">
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>34</v>
       </c>
@@ -7962,22 +7962,22 @@
         <v>140</v>
       </c>
       <c r="E250" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F250" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G250" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H250" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I250">
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>35</v>
       </c>
@@ -7991,22 +7991,22 @@
         <v>141</v>
       </c>
       <c r="E251" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F251" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G251" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H251" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I251">
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>36</v>
       </c>
@@ -8020,22 +8020,22 @@
         <v>141</v>
       </c>
       <c r="E252" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F252" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G252" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H252" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I252">
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>37</v>
       </c>
@@ -8049,27 +8049,27 @@
         <v>142</v>
       </c>
       <c r="E253" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F253" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G253" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H253" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I253">
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>38</v>
       </c>
       <c r="B254" s="2">
-        <v>7104</v>
+        <v>6612</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -8078,22 +8078,22 @@
         <v>142</v>
       </c>
       <c r="E254" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F254" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G254" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H254" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I254">
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>39</v>
       </c>
@@ -8107,22 +8107,22 @@
         <v>143</v>
       </c>
       <c r="E255" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F255" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G255" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H255" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I255">
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>40</v>
       </c>
@@ -8136,22 +8136,22 @@
         <v>143</v>
       </c>
       <c r="E256" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F256" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G256" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H256" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I256">
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>41</v>
       </c>
@@ -8165,22 +8165,22 @@
         <v>143</v>
       </c>
       <c r="E257" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F257" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G257" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H257" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I257">
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>42</v>
       </c>
@@ -8194,22 +8194,22 @@
         <v>144</v>
       </c>
       <c r="E258" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F258" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G258" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H258" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I258">
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>43</v>
       </c>
@@ -8223,22 +8223,22 @@
         <v>144</v>
       </c>
       <c r="E259" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F259" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G259" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H259" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I259">
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>44</v>
       </c>
@@ -8252,22 +8252,22 @@
         <v>144</v>
       </c>
       <c r="E260" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F260" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G260" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H260" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I260">
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>45</v>
       </c>
@@ -8281,22 +8281,22 @@
         <v>145</v>
       </c>
       <c r="E261" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F261" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G261" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H261" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I261">
         <v>99</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>46</v>
       </c>
@@ -8310,27 +8310,27 @@
         <v>146</v>
       </c>
       <c r="E262" s="1">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="F262" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G262" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H262" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I262">
         <v>99</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>129</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>130</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>131</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>132</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>133</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>134</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>135</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>136</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>137</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>138</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>139</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>140</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>141</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>142</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>143</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>144</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>145</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>146</v>
       </c>
@@ -8528,22 +8528,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>1</v>
       </c>
@@ -8557,22 +8557,22 @@
         <v>129</v>
       </c>
       <c r="E290" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F290" s="1">
         <v>100</v>
       </c>
       <c r="G290" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H290" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I290">
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>2</v>
       </c>
@@ -8586,22 +8586,22 @@
         <v>129</v>
       </c>
       <c r="E291" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F291" s="1">
         <v>100</v>
       </c>
       <c r="G291" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H291" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I291">
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>3</v>
       </c>
@@ -8615,22 +8615,22 @@
         <v>129</v>
       </c>
       <c r="E292" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F292" s="1">
         <v>100</v>
       </c>
       <c r="G292" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H292" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I292">
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>4</v>
       </c>
@@ -8644,22 +8644,22 @@
         <v>129</v>
       </c>
       <c r="E293" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F293" s="1">
         <v>100</v>
       </c>
       <c r="G293" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H293" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I293">
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>5</v>
       </c>
@@ -8673,22 +8673,22 @@
         <v>130</v>
       </c>
       <c r="E294" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F294" s="1">
         <v>100</v>
       </c>
       <c r="G294" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H294" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I294">
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>6</v>
       </c>
@@ -8702,22 +8702,22 @@
         <v>130</v>
       </c>
       <c r="E295" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F295" s="1">
         <v>100</v>
       </c>
       <c r="G295" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H295" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I295">
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>7</v>
       </c>
@@ -8731,22 +8731,22 @@
         <v>130</v>
       </c>
       <c r="E296" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F296" s="1">
         <v>100</v>
       </c>
       <c r="G296" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H296" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I296">
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>8</v>
       </c>
@@ -8760,22 +8760,22 @@
         <v>130</v>
       </c>
       <c r="E297" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F297" s="1">
         <v>100</v>
       </c>
       <c r="G297" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H297" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I297">
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>9</v>
       </c>
@@ -8789,22 +8789,22 @@
         <v>130</v>
       </c>
       <c r="E298" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F298" s="1">
         <v>100</v>
       </c>
       <c r="G298" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H298" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I298">
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>10</v>
       </c>
@@ -8818,22 +8818,22 @@
         <v>131</v>
       </c>
       <c r="E299" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F299" s="1">
         <v>100</v>
       </c>
       <c r="G299" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H299" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I299">
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>11</v>
       </c>
@@ -8847,22 +8847,22 @@
         <v>131</v>
       </c>
       <c r="E300" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F300" s="1">
         <v>100</v>
       </c>
       <c r="G300" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H300" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I300">
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>12</v>
       </c>
@@ -8876,22 +8876,22 @@
         <v>131</v>
       </c>
       <c r="E301" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F301" s="1">
         <v>100</v>
       </c>
       <c r="G301" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H301" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I301">
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>13</v>
       </c>
@@ -8905,22 +8905,22 @@
         <v>132</v>
       </c>
       <c r="E302" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F302" s="1">
         <v>100</v>
       </c>
       <c r="G302" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H302" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I302">
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>14</v>
       </c>
@@ -8934,22 +8934,22 @@
         <v>132</v>
       </c>
       <c r="E303" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F303" s="1">
         <v>100</v>
       </c>
       <c r="G303" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H303" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I303">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>15</v>
       </c>
@@ -8963,22 +8963,22 @@
         <v>133</v>
       </c>
       <c r="E304" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F304" s="1">
         <v>100</v>
       </c>
       <c r="G304" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H304" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I304">
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>16</v>
       </c>
@@ -8992,22 +8992,22 @@
         <v>134</v>
       </c>
       <c r="E305" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F305" s="1">
         <v>100</v>
       </c>
       <c r="G305" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H305" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I305">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>17</v>
       </c>
@@ -9021,22 +9021,22 @@
         <v>134</v>
       </c>
       <c r="E306" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F306" s="1">
         <v>100</v>
       </c>
       <c r="G306" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H306" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I306">
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>18</v>
       </c>
@@ -9050,22 +9050,22 @@
         <v>134</v>
       </c>
       <c r="E307" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F307" s="1">
         <v>100</v>
       </c>
       <c r="G307" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H307" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I307">
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>19</v>
       </c>
@@ -9079,22 +9079,22 @@
         <v>135</v>
       </c>
       <c r="E308" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F308" s="1">
         <v>100</v>
       </c>
       <c r="G308" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H308" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I308">
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>20</v>
       </c>
@@ -9108,22 +9108,22 @@
         <v>135</v>
       </c>
       <c r="E309" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F309" s="1">
         <v>100</v>
       </c>
       <c r="G309" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H309" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I309">
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>21</v>
       </c>
@@ -9137,22 +9137,22 @@
         <v>135</v>
       </c>
       <c r="E310" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F310" s="1">
         <v>100</v>
       </c>
       <c r="G310" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H310" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I310">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>22</v>
       </c>
@@ -9166,22 +9166,22 @@
         <v>136</v>
       </c>
       <c r="E311" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F311" s="1">
         <v>100</v>
       </c>
       <c r="G311" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H311" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I311">
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>23</v>
       </c>
@@ -9195,22 +9195,22 @@
         <v>136</v>
       </c>
       <c r="E312" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F312" s="1">
         <v>100</v>
       </c>
       <c r="G312" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H312" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I312">
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>24</v>
       </c>
@@ -9224,22 +9224,22 @@
         <v>136</v>
       </c>
       <c r="E313" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F313" s="1">
         <v>100</v>
       </c>
       <c r="G313" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H313" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I313">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>25</v>
       </c>
@@ -9253,22 +9253,22 @@
         <v>137</v>
       </c>
       <c r="E314" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F314" s="1">
         <v>100</v>
       </c>
       <c r="G314" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H314" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I314">
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>26</v>
       </c>
@@ -9282,22 +9282,22 @@
         <v>137</v>
       </c>
       <c r="E315" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F315" s="1">
         <v>100</v>
       </c>
       <c r="G315" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H315" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I315">
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>27</v>
       </c>
@@ -9311,22 +9311,22 @@
         <v>137</v>
       </c>
       <c r="E316" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F316" s="1">
         <v>100</v>
       </c>
       <c r="G316" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H316" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I316">
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>28</v>
       </c>
@@ -9340,22 +9340,22 @@
         <v>138</v>
       </c>
       <c r="E317" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F317" s="1">
         <v>100</v>
       </c>
       <c r="G317" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H317" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I317">
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>29</v>
       </c>
@@ -9369,22 +9369,22 @@
         <v>138</v>
       </c>
       <c r="E318" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F318" s="1">
         <v>100</v>
       </c>
       <c r="G318" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H318" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I318">
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>30</v>
       </c>
@@ -9398,22 +9398,22 @@
         <v>139</v>
       </c>
       <c r="E319" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F319" s="1">
         <v>100</v>
       </c>
       <c r="G319" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H319" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I319">
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>31</v>
       </c>
@@ -9427,22 +9427,22 @@
         <v>139</v>
       </c>
       <c r="E320" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F320" s="1">
         <v>100</v>
       </c>
       <c r="G320" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H320" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I320">
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>32</v>
       </c>
@@ -9456,22 +9456,22 @@
         <v>140</v>
       </c>
       <c r="E321" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F321" s="1">
         <v>100</v>
       </c>
       <c r="G321" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H321" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I321">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>33</v>
       </c>
@@ -9485,22 +9485,22 @@
         <v>140</v>
       </c>
       <c r="E322" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F322" s="1">
         <v>100</v>
       </c>
       <c r="G322" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H322" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I322">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>34</v>
       </c>
@@ -9514,22 +9514,22 @@
         <v>140</v>
       </c>
       <c r="E323" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F323" s="1">
         <v>100</v>
       </c>
       <c r="G323" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H323" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I323">
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>35</v>
       </c>
@@ -9543,22 +9543,22 @@
         <v>141</v>
       </c>
       <c r="E324" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F324" s="1">
         <v>100</v>
       </c>
       <c r="G324" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H324" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I324">
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>36</v>
       </c>
@@ -9572,22 +9572,22 @@
         <v>141</v>
       </c>
       <c r="E325" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F325" s="1">
         <v>100</v>
       </c>
       <c r="G325" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H325" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I325">
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>37</v>
       </c>
@@ -9601,22 +9601,22 @@
         <v>142</v>
       </c>
       <c r="E326" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F326" s="1">
         <v>100</v>
       </c>
       <c r="G326" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H326" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I326">
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>38</v>
       </c>
@@ -9630,22 +9630,22 @@
         <v>142</v>
       </c>
       <c r="E327" s="1">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="F327" s="1">
         <v>100</v>
       </c>
       <c r="G327" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H327" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I327">
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>39</v>
       </c>
@@ -9659,22 +9659,22 @@
         <v>143</v>
       </c>
       <c r="E328" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F328" s="1">
         <v>100</v>
       </c>
       <c r="G328" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H328" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I328">
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>40</v>
       </c>
@@ -9688,22 +9688,22 @@
         <v>143</v>
       </c>
       <c r="E329" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F329" s="1">
         <v>100</v>
       </c>
       <c r="G329" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H329" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I329">
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>41</v>
       </c>
@@ -9717,22 +9717,22 @@
         <v>143</v>
       </c>
       <c r="E330" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F330" s="1">
         <v>100</v>
       </c>
       <c r="G330" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H330" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I330">
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>42</v>
       </c>
@@ -9746,22 +9746,22 @@
         <v>144</v>
       </c>
       <c r="E331" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F331" s="1">
         <v>100</v>
       </c>
       <c r="G331" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H331" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I331">
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>43</v>
       </c>
@@ -9775,22 +9775,22 @@
         <v>144</v>
       </c>
       <c r="E332" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F332" s="1">
         <v>100</v>
       </c>
       <c r="G332" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H332" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I332">
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>44</v>
       </c>
@@ -9804,22 +9804,22 @@
         <v>144</v>
       </c>
       <c r="E333" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F333" s="1">
         <v>100</v>
       </c>
       <c r="G333" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H333" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I333">
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>45</v>
       </c>
@@ -9833,22 +9833,22 @@
         <v>145</v>
       </c>
       <c r="E334" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F334" s="1">
         <v>100</v>
       </c>
       <c r="G334" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H334" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I334">
         <v>99</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>46</v>
       </c>
@@ -9862,30 +9862,30 @@
         <v>146</v>
       </c>
       <c r="E335" s="1">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F335" s="1">
         <v>100</v>
       </c>
       <c r="G335" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H335" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I335">
         <v>99</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" s="5"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>129</v>
       </c>
@@ -9896,18 +9896,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>130</v>
       </c>
       <c r="B340" s="2">
-        <v>2858</v>
+        <v>383</v>
       </c>
       <c r="C340">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>131</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>132</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>133</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>134</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>135</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>136</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>137</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>138</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>139</v>
       </c>
@@ -10006,78 +10006,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>140</v>
       </c>
       <c r="B350" s="2">
-        <v>2173</v>
+        <v>2871</v>
       </c>
       <c r="C350">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>141</v>
       </c>
       <c r="B351" s="2">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="C351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>142</v>
       </c>
       <c r="B352" s="2">
-        <v>2869</v>
+        <v>2172</v>
       </c>
       <c r="C352">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>143</v>
       </c>
       <c r="B353" s="2">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="C353">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>144</v>
       </c>
       <c r="B354" s="2">
-        <v>2657</v>
+        <v>2868</v>
       </c>
       <c r="C354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>145</v>
       </c>
       <c r="B355" s="2">
-        <v>70000</v>
+        <v>2657</v>
       </c>
       <c r="C355">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>146</v>
       </c>
       <c r="B356" s="2">
-        <v>70001</v>
+        <v>70000</v>
       </c>
       <c r="C356">
         <v>0</v>
